--- a/tests/Feature/config/company-private-transfer_tenpercent.xlsx
+++ b/tests/Feature/config/company-private-transfer_tenpercent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>Sum total</t>
   </si>
@@ -184,30 +184,6 @@
     <t xml:space="preserve"> Company dividend tax on originalAmount: 7964.2, originalTaxAmount: 104348, dividendTaxAmount:3010, newTaxAmount: 107358, realizationamount: 4954</t>
   </si>
   <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 1927.7, originalTaxAmount: 25252, dividendTaxAmount:729, newTaxAmount: 25981, realizationamount: 1199</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 467, originalTaxAmount: 6111, dividendTaxAmount:177, newTaxAmount: 6288, realizationamount: 290</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 112.9, originalTaxAmount: 1479, dividendTaxAmount:43, newTaxAmount: 1522, realizationamount: 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 26.8, originalTaxAmount: 358, dividendTaxAmount:10, newTaxAmount: 368, realizationamount: 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 7, originalTaxAmount: 87, dividendTaxAmount:3, newTaxAmount: 90, realizationamount: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 1.7, originalTaxAmount: 21, dividendTaxAmount:1, newTaxAmount: 22, realizationamount: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 0.2, originalTaxAmount: 5, dividendTaxAmount:0, newTaxAmount: 5, realizationamount: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 0.6, originalTaxAmount: 1, dividendTaxAmount:0, newTaxAmount: 1, realizationamount: 1</t>
-  </si>
-  <si>
     <t>Fond - Firma</t>
   </si>
   <si>
@@ -230,30 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Asset rule:100% 100% of 1464100=1464100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 112312=112312</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 27180=27180</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 6578=6578</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 1592=1592</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 385=385</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 94=94</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 23=23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 5=5</t>
   </si>
   <si>
     <t>Fond - Privat</t>
@@ -280,100 +232,100 @@
     <t xml:space="preserve">transfered 1361998 - 616937.244 (tax) = 745060.756 from fondcompany.2025.asset.marketAmount  Asset rule: Using current amount: 146410 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 87603 - 57822.934 (tax) = 29780.066 from fondcompany.2026.asset.marketAmount  Asset rule: Using current amount: 980618 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 980618 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 21200 - 13993.6 (tax) = 7206.4 from fondcompany.2027.asset.marketAmount  Asset rule: Using current amount: 1111438 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1078680 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5131 - 3386.518 (tax) = 1744.482 from fondcompany.2028.asset.marketAmount  Asset rule: Using current amount: 1230509 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1186548 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 1242 - 819.476 (tax) = 422.524 from fondcompany.2029.asset.marketAmount  Asset rule: Using current amount: 1355479 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1305203 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 300 - 198.4 (tax) = 101.6 from fondcompany.2030.asset.marketAmount  Asset rule: Using current amount: 1491492 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1435723 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 73 - 48.594 (tax) = 24.406 from fondcompany.2031.asset.marketAmount  Asset rule: Using current amount: 1640753 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1579295 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 18 - 11.804 (tax) = 6.196 from fondcompany.2032.asset.marketAmount  Asset rule: Using current amount: 1804855 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1737225 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 4 - 2.512 (tax) = 1.488 from fondcompany.2033.asset.marketAmount  Asset rule: Using current amount: 1985348 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1910948 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 2 - 0.756 (tax) = 1.244 from fondcompany.2034.asset.marketAmount  Asset rule: Using current amount: 2183885 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2102043 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2402275 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2312247 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2642503 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2543472 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2906753 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2797819 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3197428 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3077601 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3517171 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3385361 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3868888 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3723897 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4255777 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4096287 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4681355 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4505916 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5149491 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4956508 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5664440 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5452159 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6230884 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5997375 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6853972 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6597113 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7539369 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7256824 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8293306 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7982506 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 9122637 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8780757 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 10034901 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 9658833 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 11038391 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10624716 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 12142230 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 11687188 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 13356453 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 12855907 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 14692098 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 14141498 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 16161308 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 15555648 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 17777439 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 17111213 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 19555183 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 18822334 * 1 </t>
   </si>
   <si>
     <t>total</t>
@@ -2487,22 +2439,22 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>1138617.7726</v>
+        <v>1078680.0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="R21" s="1">
-        <v>1138617.7726</v>
+        <v>1078680.0</v>
       </c>
       <c r="S21" s="1">
-        <v>874840.822</v>
+        <v>845060.756</v>
       </c>
       <c r="T21" s="1">
-        <v>874840.822</v>
+        <v>845060.756</v>
       </c>
       <c r="U21" s="1">
-        <v>986487.0</v>
+        <v>862944.0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="5">
@@ -2514,13 +2466,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1023837.7726</v>
+        <v>990278.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>351379.9506</v>
+        <v>233619.244</v>
       </c>
       <c r="AC21" s="5">
-        <v>114780.0</v>
+        <v>88402.0</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
@@ -2541,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>29780.066</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -2584,22 +2536,22 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>1237087.04</v>
+        <v>1186548.0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>1237087.04</v>
+        <v>1186548.0</v>
       </c>
       <c r="S22" s="1">
-        <v>882047.222</v>
+        <v>845060.756</v>
       </c>
       <c r="T22" s="1">
-        <v>882047.222</v>
+        <v>845060.756</v>
       </c>
       <c r="U22" s="1">
-        <v>1007963.6</v>
+        <v>949238.4</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="5">
@@ -2611,13 +2563,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1099118.04</v>
+        <v>1057329.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>376239.818</v>
+        <v>341487.244</v>
       </c>
       <c r="AC22" s="5">
-        <v>137969.0</v>
+        <v>129219.0</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
@@ -2638,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>7206.4</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -2681,22 +2633,22 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1357070.8302</v>
+        <v>1305203.0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>1357070.8302</v>
+        <v>1305203.0</v>
       </c>
       <c r="S23" s="1">
-        <v>883791.704</v>
+        <v>845060.756</v>
       </c>
       <c r="T23" s="1">
-        <v>883791.704</v>
+        <v>845060.756</v>
       </c>
       <c r="U23" s="1">
-        <v>1090084.0</v>
+        <v>1044162.4</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="5">
@@ -2708,13 +2660,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1177105.8302</v>
+        <v>1131085.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>478410.1262</v>
+        <v>460142.244</v>
       </c>
       <c r="AC23" s="5">
-        <v>179965.0</v>
+        <v>174118.0</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
@@ -2735,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1744.482</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -2778,22 +2730,22 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>1491876.5764</v>
+        <v>1435723.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.09</v>
       </c>
       <c r="R24" s="1">
-        <v>1491876.5764</v>
+        <v>1435723.0</v>
       </c>
       <c r="S24" s="1">
-        <v>884214.228</v>
+        <v>845060.756</v>
       </c>
       <c r="T24" s="1">
-        <v>884214.228</v>
+        <v>845060.756</v>
       </c>
       <c r="U24" s="1">
-        <v>1194572.6</v>
+        <v>1148578.4</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
@@ -2805,13 +2757,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1261724.5764</v>
+        <v>1212216.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>608904.3484</v>
+        <v>590662.244</v>
       </c>
       <c r="AC24" s="5">
-        <v>230152.0</v>
+        <v>223507.0</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
@@ -2832,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>422.52399999998</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -2875,22 +2827,22 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>1640846.76</v>
+        <v>1579295.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.09</v>
       </c>
       <c r="R25" s="1">
-        <v>1640846.76</v>
+        <v>1579295.0</v>
       </c>
       <c r="S25" s="1">
-        <v>884315.828</v>
+        <v>845060.756</v>
       </c>
       <c r="T25" s="1">
-        <v>884315.828</v>
+        <v>845060.756</v>
       </c>
       <c r="U25" s="1">
-        <v>1312936.8</v>
+        <v>1263436.0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="5">
@@ -2902,13 +2854,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1354523.76</v>
+        <v>1301461.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>756830.932</v>
+        <v>734234.244</v>
       </c>
       <c r="AC25" s="5">
-        <v>286323.0</v>
+        <v>277834.0</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
@@ -2929,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>101.59999999998</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -2972,22 +2924,22 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>1804877.5466</v>
+        <v>1737225.0</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>1804877.5466</v>
+        <v>1737225.0</v>
       </c>
       <c r="S26" s="1">
-        <v>884340.234</v>
+        <v>845060.756</v>
       </c>
       <c r="T26" s="1">
-        <v>884340.234</v>
+        <v>845060.756</v>
       </c>
       <c r="U26" s="1">
-        <v>1443965.4</v>
+        <v>1389780.0</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="5">
@@ -2999,13 +2951,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1456533.5466</v>
+        <v>1399630.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>920610.3126</v>
+        <v>892164.244</v>
       </c>
       <c r="AC26" s="5">
-        <v>348344.0</v>
+        <v>337595.0</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
@@ -3026,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>24.405999999959</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -3069,22 +3021,22 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>1985353.0156</v>
+        <v>1910948.0</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>1985353.0156</v>
+        <v>1910948.0</v>
       </c>
       <c r="S27" s="1">
-        <v>884346.43</v>
+        <v>845060.756</v>
       </c>
       <c r="T27" s="1">
-        <v>884346.43</v>
+        <v>845060.756</v>
       </c>
       <c r="U27" s="1">
-        <v>1588297.8</v>
+        <v>1528758.4</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="5">
@@ -3096,13 +3048,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1568729.0156</v>
+        <v>1507616.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>1101024.5856</v>
+        <v>1065887.244</v>
       </c>
       <c r="AC27" s="5">
-        <v>416624.0</v>
+        <v>403332.0</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
@@ -3123,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>6.1959999999963</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -3166,26 +3118,26 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>2183886.2368</v>
+        <v>2102043.0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>2183886.2368</v>
+        <v>2102043.0</v>
       </c>
       <c r="S28" s="1">
-        <v>884347.918</v>
+        <v>845060.756</v>
       </c>
       <c r="T28" s="1">
-        <v>884347.918</v>
+        <v>845060.756</v>
       </c>
       <c r="U28" s="1">
-        <v>1747112.4</v>
+        <v>1681634.4</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="5">
-        <v>471.124</v>
+        <v>0.0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="5">
@@ -3193,13 +3145,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1692140.2368</v>
+        <v>1626401.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1299542.3188</v>
+        <v>1256982.244</v>
       </c>
       <c r="AC28" s="5">
-        <v>491746.0</v>
+        <v>475642.0</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
@@ -3207,10 +3159,10 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="6">
-        <v>-471.064</v>
+        <v>0.0</v>
       </c>
       <c r="AH28" s="1">
-        <v>-471.064</v>
+        <v>0.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -3220,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1.4880000000121</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
@@ -3263,26 +3215,26 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>2402275.3684</v>
+        <v>2312247.0</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R29" s="1">
-        <v>2402275.3684</v>
+        <v>2312247.0</v>
       </c>
       <c r="S29" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T29" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U29" s="1">
-        <v>1921819.2</v>
+        <v>1849797.6</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="5">
-        <v>2218.192</v>
+        <v>1497.976</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="5">
@@ -3290,13 +3242,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1827892.3684</v>
+        <v>1757064.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1517926.2064</v>
+        <v>1467186.244</v>
       </c>
       <c r="AC29" s="5">
-        <v>574383.0</v>
+        <v>555183.0</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
@@ -3304,10 +3256,10 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="6">
-        <v>-2218.192</v>
+        <v>-1497.976</v>
       </c>
       <c r="AH29" s="1">
-        <v>-2689.256</v>
+        <v>-1497.976</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -3317,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1.2439999999478</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
@@ -3360,26 +3312,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>2642503.0</v>
+        <v>2543472.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>2642503.0</v>
+        <v>2543472.0</v>
       </c>
       <c r="S30" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T30" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U30" s="1">
-        <v>2114002.4</v>
+        <v>2034777.6</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5">
-        <v>4140.024</v>
+        <v>3347.776</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="5">
@@ -3387,13 +3339,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1977218.0</v>
+        <v>1900793.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1758153.838</v>
+        <v>1698411.244</v>
       </c>
       <c r="AC30" s="5">
-        <v>665285.0</v>
+        <v>642679.0</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
@@ -3401,10 +3353,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="6">
-        <v>-4140.024</v>
+        <v>-3347.776</v>
       </c>
       <c r="AH30" s="1">
-        <v>-6829.28</v>
+        <v>-4845.752</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -3457,26 +3409,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>2906753.0</v>
+        <v>2797819.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.09</v>
       </c>
       <c r="R31" s="1">
-        <v>2906753.0</v>
+        <v>2797819.0</v>
       </c>
       <c r="S31" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T31" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U31" s="1">
-        <v>2325402.4</v>
+        <v>2238255.2</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="5">
-        <v>6254.024</v>
+        <v>5382.552</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="5">
@@ -3484,13 +3436,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>2141475.0</v>
+        <v>2058895.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>2022403.838</v>
+        <v>1952758.244</v>
       </c>
       <c r="AC31" s="5">
-        <v>765278.0</v>
+        <v>738924.0</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
@@ -3498,10 +3450,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="6">
-        <v>-6254.024</v>
+        <v>-5382.552</v>
       </c>
       <c r="AH31" s="1">
-        <v>-13083.304</v>
+        <v>-10228.304</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -3554,26 +3506,26 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>3197428.0</v>
+        <v>3077601.0</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>3197428.0</v>
+        <v>3077601.0</v>
       </c>
       <c r="S32" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T32" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U32" s="1">
-        <v>2557942.4</v>
+        <v>2462080.8</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="5">
-        <v>8579.424</v>
+        <v>7620.808</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="5">
@@ -3581,13 +3533,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>2322159.0</v>
+        <v>2232808.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>2313078.838</v>
+        <v>2232540.244</v>
       </c>
       <c r="AC32" s="5">
-        <v>875269.0</v>
+        <v>844793.0</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
@@ -3595,10 +3547,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="6">
-        <v>-8579.424</v>
+        <v>-7620.808</v>
       </c>
       <c r="AH32" s="1">
-        <v>-21662.728</v>
+        <v>-17849.112</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -3651,26 +3603,26 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>3517171.0</v>
+        <v>3385361.0</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R33" s="1">
-        <v>3517171.0</v>
+        <v>3385361.0</v>
       </c>
       <c r="S33" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T33" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U33" s="1">
-        <v>2813736.8</v>
+        <v>2708288.8</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="5">
-        <v>11137.368</v>
+        <v>10082.888</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="5">
@@ -3678,13 +3630,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>2520911.0</v>
+        <v>2424111.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>2632821.838</v>
+        <v>2540300.244</v>
       </c>
       <c r="AC33" s="5">
-        <v>996260.0</v>
+        <v>961250.0</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
@@ -3692,10 +3644,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="6">
-        <v>-11137.368</v>
+        <v>-10082.888</v>
       </c>
       <c r="AH33" s="1">
-        <v>-32800.096</v>
+        <v>-27932.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -3748,26 +3700,26 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>3868888.0</v>
+        <v>3723897.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.09</v>
       </c>
       <c r="R34" s="1">
-        <v>3868888.0</v>
+        <v>3723897.0</v>
       </c>
       <c r="S34" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T34" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U34" s="1">
-        <v>3095110.4</v>
+        <v>2979117.6</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="5">
-        <v>13951.104</v>
+        <v>12791.176</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="5">
@@ -3775,13 +3727,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>2739539.0</v>
+        <v>2634545.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>2984538.838</v>
+        <v>2878836.244</v>
       </c>
       <c r="AC34" s="5">
-        <v>1129349.0</v>
+        <v>1089352.0</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
@@ -3789,10 +3741,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="6">
-        <v>-13951.104</v>
+        <v>-12791.176</v>
       </c>
       <c r="AH34" s="1">
-        <v>-46751.2</v>
+        <v>-40723.176</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -3845,26 +3797,26 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>4255777.0</v>
+        <v>4096287.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>4255777.0</v>
+        <v>4096287.0</v>
       </c>
       <c r="S35" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T35" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U35" s="1">
-        <v>3404621.6</v>
+        <v>3277029.6</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="5">
-        <v>17046.216</v>
+        <v>15770.296</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="5">
@@ -3872,13 +3824,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>2980029.0</v>
+        <v>2866023.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>3371427.838</v>
+        <v>3251226.244</v>
       </c>
       <c r="AC35" s="5">
-        <v>1275748.0</v>
+        <v>1230264.0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
@@ -3886,10 +3838,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="6">
-        <v>-17046.216</v>
+        <v>-15770.296</v>
       </c>
       <c r="AH35" s="1">
-        <v>-63797.416</v>
+        <v>-56493.472</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -3942,26 +3894,26 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>4681355.0</v>
+        <v>4505916.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>4681355.0</v>
+        <v>4505916.0</v>
       </c>
       <c r="S36" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T36" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U36" s="1">
-        <v>3745084.0</v>
+        <v>3604732.8</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="5">
-        <v>20450.84</v>
+        <v>19047.328</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="5">
@@ -3969,13 +3921,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>3244568.0</v>
+        <v>3120648.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>3797005.838</v>
+        <v>3660855.244</v>
       </c>
       <c r="AC36" s="5">
-        <v>1436787.0</v>
+        <v>1385268.0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
@@ -3983,10 +3935,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="6">
-        <v>-20450.84</v>
+        <v>-19047.328</v>
       </c>
       <c r="AH36" s="1">
-        <v>-84248.256</v>
+        <v>-75540.8</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -4039,26 +3991,26 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>5149491.0</v>
+        <v>4956508.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>5149491.0</v>
+        <v>4956508.0</v>
       </c>
       <c r="S37" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T37" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U37" s="1">
-        <v>4119592.8</v>
+        <v>3965206.4</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="5">
-        <v>24195.928</v>
+        <v>22652.064</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="5">
@@ -4066,13 +4018,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>3535561.0</v>
+        <v>3400736.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>4265141.838</v>
+        <v>4111447.244</v>
       </c>
       <c r="AC37" s="5">
-        <v>1613930.0</v>
+        <v>1555772.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
@@ -4080,10 +4032,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="6">
-        <v>-24195.928</v>
+        <v>-22652.064</v>
       </c>
       <c r="AH37" s="1">
-        <v>-108444.184</v>
+        <v>-98192.864</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -4136,26 +4088,26 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>5664440.0</v>
+        <v>5452159.0</v>
       </c>
       <c r="Q38" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>5664440.0</v>
+        <v>5452159.0</v>
       </c>
       <c r="S38" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T38" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U38" s="1">
-        <v>4531552.0</v>
+        <v>4361727.2</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="5">
-        <v>28315.52</v>
+        <v>26617.272</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="5">
@@ -4163,13 +4115,13 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>3855654.0</v>
+        <v>3708833.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>4780090.838</v>
+        <v>4607098.244</v>
       </c>
       <c r="AC38" s="5">
-        <v>1808786.0</v>
+        <v>1743326.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
@@ -4177,10 +4129,10 @@
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="6">
-        <v>-28315.52</v>
+        <v>-26617.272</v>
       </c>
       <c r="AH38" s="1">
-        <v>-136759.704</v>
+        <v>-124810.136</v>
       </c>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
@@ -4233,26 +4185,26 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>6230884.0</v>
+        <v>5997375.0</v>
       </c>
       <c r="Q39" s="2">
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>6230884.0</v>
+        <v>5997375.0</v>
       </c>
       <c r="S39" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T39" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U39" s="1">
-        <v>4984707.2</v>
+        <v>4797900.0</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="5">
-        <v>32847.072</v>
+        <v>30979.0</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="5">
@@ -4260,13 +4212,13 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>4207755.0</v>
+        <v>4047739.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>5346534.838</v>
+        <v>5152314.244</v>
       </c>
       <c r="AC39" s="5">
-        <v>2023129.0</v>
+        <v>1949636.0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
@@ -4274,10 +4226,10 @@
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="6">
-        <v>-32847.072</v>
+        <v>-30979.0</v>
       </c>
       <c r="AH39" s="1">
-        <v>-169606.776</v>
+        <v>-155789.136</v>
       </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
@@ -4330,26 +4282,26 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>6853972.0</v>
+        <v>6597113.0</v>
       </c>
       <c r="Q40" s="12">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>6853972.0</v>
+        <v>6597113.0</v>
       </c>
       <c r="S40" s="11">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T40" s="11">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U40" s="11">
-        <v>5483177.6</v>
+        <v>5277690.4</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>37831.776</v>
+        <v>35776.904</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -4357,13 +4309,13 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>4595067.0</v>
+        <v>4420536.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>5969622.838</v>
+        <v>5752052.244</v>
       </c>
       <c r="AC40" s="11">
-        <v>2258905.0</v>
+        <v>2176577.0</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
@@ -4371,10 +4323,10 @@
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
-        <v>-37831.776</v>
+        <v>-35776.904</v>
       </c>
       <c r="AH40" s="11">
-        <v>-207438.552</v>
+        <v>-191566.04</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
@@ -4427,26 +4379,26 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>7539369.0</v>
+        <v>7256824.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.09</v>
       </c>
       <c r="R41" s="1">
-        <v>7539369.0</v>
+        <v>7256824.0</v>
       </c>
       <c r="S41" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T41" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U41" s="1">
-        <v>6031495.2</v>
+        <v>5805459.2</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="5">
-        <v>43314.952</v>
+        <v>41054.592</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="5">
@@ -4454,13 +4406,13 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>5021109.0</v>
+        <v>4830613.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>6655019.838</v>
+        <v>6411763.244</v>
       </c>
       <c r="AC41" s="5">
-        <v>2518260.0</v>
+        <v>2426211.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
@@ -4468,10 +4420,10 @@
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="6">
-        <v>-43314.952</v>
+        <v>-41054.592</v>
       </c>
       <c r="AH41" s="1">
-        <v>-250753.504</v>
+        <v>-232620.632</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
@@ -4524,26 +4476,26 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>8293306.0</v>
+        <v>7982506.0</v>
       </c>
       <c r="Q42" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R42" s="1">
-        <v>8293306.0</v>
+        <v>7982506.0</v>
       </c>
       <c r="S42" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T42" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U42" s="1">
-        <v>6634644.8</v>
+        <v>6386004.8</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="5">
-        <v>49346.448</v>
+        <v>46860.048</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="5">
@@ -4551,13 +4503,13 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>5489757.0</v>
+        <v>5281697.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>7408956.838</v>
+        <v>7137445.244</v>
       </c>
       <c r="AC42" s="5">
-        <v>2803549.0</v>
+        <v>2700809.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
@@ -4565,10 +4517,10 @@
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="6">
-        <v>-49346.448</v>
+        <v>-46860.048</v>
       </c>
       <c r="AH42" s="1">
-        <v>-300099.952</v>
+        <v>-279480.68</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
@@ -4621,26 +4573,26 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>9122637.0</v>
+        <v>8780757.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>9122637.0</v>
+        <v>8780757.0</v>
       </c>
       <c r="S43" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T43" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U43" s="1">
-        <v>7298109.6</v>
+        <v>7024605.6</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="5">
-        <v>55981.096</v>
+        <v>53246.056</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="5">
@@ -4648,13 +4600,13 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>6005269.0</v>
+        <v>5777890.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>8238287.838</v>
+        <v>7935696.244</v>
       </c>
       <c r="AC43" s="5">
-        <v>3117368.0</v>
+        <v>3002867.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
@@ -4662,10 +4614,10 @@
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="6">
-        <v>-55981.096</v>
+        <v>-53246.056</v>
       </c>
       <c r="AH43" s="1">
-        <v>-356081.048</v>
+        <v>-332726.736</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
@@ -4718,26 +4670,26 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>10034901.0</v>
+        <v>9658833.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>10034901.0</v>
+        <v>9658833.0</v>
       </c>
       <c r="S44" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T44" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U44" s="1">
-        <v>8027920.8</v>
+        <v>7727066.4</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="5">
-        <v>63279.208</v>
+        <v>60270.664</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="5">
@@ -4745,13 +4697,13 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>6572332.0</v>
+        <v>6323702.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>9150551.838</v>
+        <v>8813772.244</v>
       </c>
       <c r="AC44" s="5">
-        <v>3462569.0</v>
+        <v>3335131.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
@@ -4759,10 +4711,10 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="6">
-        <v>-63279.208</v>
+        <v>-60270.664</v>
       </c>
       <c r="AH44" s="1">
-        <v>-419360.256</v>
+        <v>-392997.4</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
@@ -4815,26 +4767,26 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>11038391.0</v>
+        <v>10624716.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.09</v>
       </c>
       <c r="R45" s="1">
-        <v>11038391.0</v>
+        <v>10624716.0</v>
       </c>
       <c r="S45" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T45" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U45" s="1">
-        <v>8830712.8</v>
+        <v>8499772.8</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="5">
-        <v>71307.128</v>
+        <v>67997.728</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="5">
@@ -4842,13 +4794,13 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>7196102.0</v>
+        <v>6924094.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>10154041.838</v>
+        <v>9779655.244</v>
       </c>
       <c r="AC45" s="5">
-        <v>3842289.0</v>
+        <v>3700622.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
@@ -4856,10 +4808,10 @@
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="6">
-        <v>-71307.128</v>
+        <v>-67997.728</v>
       </c>
       <c r="AH45" s="1">
-        <v>-490667.384</v>
+        <v>-460995.128</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
@@ -4912,26 +4864,26 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>12142230.0</v>
+        <v>11687188.0</v>
       </c>
       <c r="Q46" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>12142230.0</v>
+        <v>11687188.0</v>
       </c>
       <c r="S46" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T46" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U46" s="1">
-        <v>9713784.0</v>
+        <v>9349750.4</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="5">
-        <v>80137.84</v>
+        <v>76497.504</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="5">
@@ -4939,13 +4891,13 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>7882248.0</v>
+        <v>7584527.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>11257880.838</v>
+        <v>10842127.244</v>
       </c>
       <c r="AC46" s="5">
-        <v>4259982.0</v>
+        <v>4102661.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
@@ -4953,10 +4905,10 @@
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="6">
-        <v>-80137.84</v>
+        <v>-76497.504</v>
       </c>
       <c r="AH46" s="1">
-        <v>-570805.224</v>
+        <v>-537492.632</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
@@ -5009,26 +4961,26 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>13356453.0</v>
+        <v>12855907.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>13356453.0</v>
+        <v>12855907.0</v>
       </c>
       <c r="S47" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T47" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U47" s="1">
-        <v>10685162.4</v>
+        <v>10284725.6</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="5">
-        <v>89851.624</v>
+        <v>85847.256</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="5">
@@ -5036,13 +4988,13 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>8637009.0</v>
+        <v>8311003.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>12472103.838</v>
+        <v>12010846.244</v>
       </c>
       <c r="AC47" s="5">
-        <v>4719444.0</v>
+        <v>4544904.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
@@ -5050,10 +5002,10 @@
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="6">
-        <v>-89851.624</v>
+        <v>-85847.256</v>
       </c>
       <c r="AH47" s="1">
-        <v>-660656.848</v>
+        <v>-623339.888</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
@@ -5106,26 +5058,26 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>14692098.0</v>
+        <v>14141498.0</v>
       </c>
       <c r="Q48" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>14692098.0</v>
+        <v>14141498.0</v>
       </c>
       <c r="S48" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T48" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U48" s="1">
-        <v>11753678.4</v>
+        <v>11313198.4</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="5">
-        <v>100536.784</v>
+        <v>96131.984</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="5">
@@ -5133,13 +5085,13 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>9467246.0</v>
+        <v>9110126.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>13807748.838</v>
+        <v>13296437.244</v>
       </c>
       <c r="AC48" s="5">
-        <v>5224852.0</v>
+        <v>5031372.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
@@ -5147,10 +5099,10 @@
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="6">
-        <v>-100536.784</v>
+        <v>-96131.984</v>
       </c>
       <c r="AH48" s="1">
-        <v>-761193.632</v>
+        <v>-719471.872</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
@@ -5203,26 +5155,26 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>16161308.0</v>
+        <v>15555648.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>16161308.0</v>
+        <v>15555648.0</v>
       </c>
       <c r="S49" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T49" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U49" s="1">
-        <v>12929046.4</v>
+        <v>12444518.4</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="5">
-        <v>112290.464</v>
+        <v>107445.184</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="5">
@@ -5230,13 +5182,13 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>10380507.0</v>
+        <v>9989162.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>15276958.838</v>
+        <v>14710587.244</v>
       </c>
       <c r="AC49" s="5">
-        <v>5780801.0</v>
+        <v>5566486.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
@@ -5244,10 +5196,10 @@
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="6">
-        <v>-112290.464</v>
+        <v>-107445.184</v>
       </c>
       <c r="AH49" s="1">
-        <v>-873484.096</v>
+        <v>-826917.056</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
@@ -5300,26 +5252,26 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>17777439.0</v>
+        <v>17111213.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>17777439.0</v>
+        <v>17111213.0</v>
       </c>
       <c r="S50" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T50" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U50" s="1">
-        <v>14221951.2</v>
+        <v>13688970.4</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="5">
-        <v>125219.512</v>
+        <v>119889.704</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="5">
@@ -5327,13 +5279,13 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>11385094.0</v>
+        <v>10956101.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>16893089.838</v>
+        <v>16266152.244</v>
       </c>
       <c r="AC50" s="5">
-        <v>6392345.0</v>
+        <v>6155112.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
@@ -5341,10 +5293,10 @@
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="6">
-        <v>-125219.512</v>
+        <v>-119889.704</v>
       </c>
       <c r="AH50" s="1">
-        <v>-998703.608</v>
+        <v>-946806.76</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
@@ -5397,26 +5349,26 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>19555183.0</v>
+        <v>18822334.0</v>
       </c>
       <c r="Q51" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R51" s="1">
-        <v>19555183.0</v>
+        <v>18822334.0</v>
       </c>
       <c r="S51" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T51" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U51" s="1">
-        <v>15644146.4</v>
+        <v>15057867.2</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="5">
-        <v>139441.464</v>
+        <v>133578.672</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="5">
@@ -5424,13 +5376,13 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>12490139.0</v>
+        <v>12019734.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>18670833.838</v>
+        <v>17977273.244</v>
       </c>
       <c r="AC51" s="5">
-        <v>7065044.0</v>
+        <v>6802600.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
@@ -5438,10 +5390,10 @@
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="6">
-        <v>-139441.464</v>
+        <v>-133578.672</v>
       </c>
       <c r="AH51" s="1">
-        <v>-1138145.072</v>
+        <v>-1080385.432</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
@@ -5494,26 +5446,26 @@
       </c>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>21510701.0</v>
+        <v>20704567.0</v>
       </c>
       <c r="Q52" s="16">
         <v>0.09</v>
       </c>
       <c r="R52" s="5">
-        <v>21510701.0</v>
+        <v>20704567.0</v>
       </c>
       <c r="S52" s="5">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T52" s="5">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U52" s="5">
-        <v>17208560.8</v>
+        <v>16563653.6</v>
       </c>
       <c r="V52" s="16"/>
       <c r="W52" s="5">
-        <v>155085.608</v>
+        <v>148636.536</v>
       </c>
       <c r="X52" s="16"/>
       <c r="Y52" s="5">
@@ -5521,13 +5473,13 @@
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>13705689.0</v>
+        <v>13189730.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>20626351.838</v>
+        <v>19859506.244</v>
       </c>
       <c r="AC52" s="5">
-        <v>7805012.0</v>
+        <v>7514837.0</v>
       </c>
       <c r="AD52" s="16"/>
       <c r="AE52" s="5">
@@ -5535,10 +5487,10 @@
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="5">
-        <v>-155085.608</v>
+        <v>-148636.536</v>
       </c>
       <c r="AH52" s="5">
-        <v>-1293230.68</v>
+        <v>-1229021.968</v>
       </c>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="5">
@@ -8443,19 +8395,19 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>1111438.0726</v>
+        <v>1078680.0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>1111438.0726</v>
+        <v>1078680.0</v>
       </c>
       <c r="S21" s="1">
-        <v>874840.822</v>
+        <v>845060.756</v>
       </c>
       <c r="T21" s="1">
-        <v>874840.822</v>
+        <v>845060.756</v>
       </c>
       <c r="U21" s="1">
         <v>862944.0</v>
@@ -8470,13 +8422,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1021910.0726</v>
+        <v>990278.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>236597.2506</v>
+        <v>233619.244</v>
       </c>
       <c r="AC21" s="5">
-        <v>89528.0</v>
+        <v>88402.0</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
@@ -8497,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>29780.066</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -8540,22 +8492,22 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>1230509.04</v>
+        <v>1186548.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>1230509.04</v>
+        <v>1186548.0</v>
       </c>
       <c r="S22" s="1">
-        <v>882047.222</v>
+        <v>845060.756</v>
       </c>
       <c r="T22" s="1">
-        <v>882047.222</v>
+        <v>845060.756</v>
       </c>
       <c r="U22" s="1">
-        <v>978065.6</v>
+        <v>949238.4</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="5">
@@ -8567,13 +8519,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1098651.04</v>
+        <v>1057329.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>348461.818</v>
+        <v>341487.244</v>
       </c>
       <c r="AC22" s="5">
-        <v>131858.0</v>
+        <v>129219.0</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
@@ -8594,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>7206.4</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -8637,22 +8589,22 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1355478.9302</v>
+        <v>1305203.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>1355478.9302</v>
+        <v>1305203.0</v>
       </c>
       <c r="S23" s="1">
-        <v>883791.704</v>
+        <v>845060.756</v>
       </c>
       <c r="T23" s="1">
-        <v>883791.704</v>
+        <v>845060.756</v>
       </c>
       <c r="U23" s="1">
-        <v>1082848.0</v>
+        <v>1044162.4</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="5">
@@ -8664,13 +8616,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1176992.9302</v>
+        <v>1131085.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>471687.2262</v>
+        <v>460142.244</v>
       </c>
       <c r="AC23" s="5">
-        <v>178486.0</v>
+        <v>174118.0</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
@@ -8691,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1744.482</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -8734,22 +8686,22 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>1491491.7764</v>
+        <v>1435723.0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R24" s="1">
-        <v>1491491.7764</v>
+        <v>1435723.0</v>
       </c>
       <c r="S24" s="1">
-        <v>884214.228</v>
+        <v>845060.756</v>
       </c>
       <c r="T24" s="1">
-        <v>884214.228</v>
+        <v>845060.756</v>
       </c>
       <c r="U24" s="1">
-        <v>1192821.6</v>
+        <v>1148578.4</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
@@ -8761,13 +8713,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1261697.7764</v>
+        <v>1212216.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>607277.5484</v>
+        <v>590662.244</v>
       </c>
       <c r="AC24" s="5">
-        <v>229794.0</v>
+        <v>223507.0</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
@@ -8788,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>422.52399999998</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -8831,22 +8783,22 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>1640752.76</v>
+        <v>1579295.0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R25" s="1">
-        <v>1640752.76</v>
+        <v>1579295.0</v>
       </c>
       <c r="S25" s="1">
-        <v>884315.828</v>
+        <v>845060.756</v>
       </c>
       <c r="T25" s="1">
-        <v>884315.828</v>
+        <v>845060.756</v>
       </c>
       <c r="U25" s="1">
-        <v>1312512.8</v>
+        <v>1263436.0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="5">
@@ -8858,13 +8810,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1354516.76</v>
+        <v>1301461.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>756436.932</v>
+        <v>734234.244</v>
       </c>
       <c r="AC25" s="5">
-        <v>286236.0</v>
+        <v>277834.0</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
@@ -8885,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>101.59999999998</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -8928,22 +8880,22 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>1804854.8466</v>
+        <v>1737225.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>1804854.8466</v>
+        <v>1737225.0</v>
       </c>
       <c r="S26" s="1">
-        <v>884340.234</v>
+        <v>845060.756</v>
       </c>
       <c r="T26" s="1">
-        <v>884340.234</v>
+        <v>845060.756</v>
       </c>
       <c r="U26" s="1">
-        <v>1443862.4</v>
+        <v>1389780.0</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="5">
@@ -8955,13 +8907,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1456531.8466</v>
+        <v>1399630.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>920514.6126</v>
+        <v>892164.244</v>
       </c>
       <c r="AC26" s="5">
-        <v>348323.0</v>
+        <v>337595.0</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
@@ -8982,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>24.405999999959</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -9025,22 +8977,22 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>1985347.8156</v>
+        <v>1910948.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>1985347.8156</v>
+        <v>1910948.0</v>
       </c>
       <c r="S27" s="1">
-        <v>884346.43</v>
+        <v>845060.756</v>
       </c>
       <c r="T27" s="1">
-        <v>884346.43</v>
+        <v>845060.756</v>
       </c>
       <c r="U27" s="1">
-        <v>1588272.8</v>
+        <v>1528758.4</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="5">
@@ -9052,13 +9004,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1568728.8156</v>
+        <v>1507616.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>1101001.3856</v>
+        <v>1065887.244</v>
       </c>
       <c r="AC27" s="5">
-        <v>416619.0</v>
+        <v>403332.0</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
@@ -9079,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>6.1959999999963</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -9122,26 +9074,26 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>2183884.6368</v>
+        <v>2102043.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>2183884.6368</v>
+        <v>2102043.0</v>
       </c>
       <c r="S28" s="1">
-        <v>884347.918</v>
+        <v>845060.756</v>
       </c>
       <c r="T28" s="1">
-        <v>884347.918</v>
+        <v>845060.756</v>
       </c>
       <c r="U28" s="1">
-        <v>1747106.4</v>
+        <v>1681634.4</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="5">
-        <v>471.064</v>
+        <v>0.0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="5">
@@ -9149,13 +9101,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1692139.6368</v>
+        <v>1626401.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1299536.7188</v>
+        <v>1256982.244</v>
       </c>
       <c r="AC28" s="5">
-        <v>491745.0</v>
+        <v>475642.0</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
@@ -9163,10 +9115,10 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="6">
-        <v>-471.064</v>
+        <v>0.0</v>
       </c>
       <c r="AH28" s="1">
-        <v>-471.064</v>
+        <v>0.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -9176,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1.4880000000121</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
@@ -9219,26 +9171,26 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>2402275.3684</v>
+        <v>2312247.0</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R29" s="1">
-        <v>2402275.3684</v>
+        <v>2312247.0</v>
       </c>
       <c r="S29" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T29" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U29" s="1">
-        <v>1921819.2</v>
+        <v>1849797.6</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="5">
-        <v>2218.192</v>
+        <v>1497.976</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="5">
@@ -9246,13 +9198,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1827892.3684</v>
+        <v>1757064.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1517926.2064</v>
+        <v>1467186.244</v>
       </c>
       <c r="AC29" s="5">
-        <v>574383.0</v>
+        <v>555183.0</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
@@ -9260,10 +9212,10 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="6">
-        <v>-2218.192</v>
+        <v>-1497.976</v>
       </c>
       <c r="AH29" s="1">
-        <v>-2689.256</v>
+        <v>-1497.976</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -9273,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1.2439999999478</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
@@ -9316,26 +9268,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>2642503.0</v>
+        <v>2543472.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>2642503.0</v>
+        <v>2543472.0</v>
       </c>
       <c r="S30" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T30" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U30" s="1">
-        <v>2114002.4</v>
+        <v>2034777.6</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5">
-        <v>4140.024</v>
+        <v>3347.776</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="5">
@@ -9343,13 +9295,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1977218.0</v>
+        <v>1900793.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1758153.838</v>
+        <v>1698411.244</v>
       </c>
       <c r="AC30" s="5">
-        <v>665285.0</v>
+        <v>642679.0</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
@@ -9357,10 +9309,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="6">
-        <v>-4140.024</v>
+        <v>-3347.776</v>
       </c>
       <c r="AH30" s="1">
-        <v>-6829.28</v>
+        <v>-4845.752</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -9413,26 +9365,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>2906753.0</v>
+        <v>2797819.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.09</v>
       </c>
       <c r="R31" s="1">
-        <v>2906753.0</v>
+        <v>2797819.0</v>
       </c>
       <c r="S31" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T31" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U31" s="1">
-        <v>2325402.4</v>
+        <v>2238255.2</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="5">
-        <v>6254.024</v>
+        <v>5382.552</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="5">
@@ -9440,13 +9392,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>2141475.0</v>
+        <v>2058895.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>2022403.838</v>
+        <v>1952758.244</v>
       </c>
       <c r="AC31" s="5">
-        <v>765278.0</v>
+        <v>738924.0</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
@@ -9454,10 +9406,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="6">
-        <v>-6254.024</v>
+        <v>-5382.552</v>
       </c>
       <c r="AH31" s="1">
-        <v>-13083.304</v>
+        <v>-10228.304</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -9510,26 +9462,26 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>3197428.0</v>
+        <v>3077601.0</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>3197428.0</v>
+        <v>3077601.0</v>
       </c>
       <c r="S32" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T32" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U32" s="1">
-        <v>2557942.4</v>
+        <v>2462080.8</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="5">
-        <v>8579.424</v>
+        <v>7620.808</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="5">
@@ -9537,13 +9489,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>2322159.0</v>
+        <v>2232808.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>2313078.838</v>
+        <v>2232540.244</v>
       </c>
       <c r="AC32" s="5">
-        <v>875269.0</v>
+        <v>844793.0</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
@@ -9551,10 +9503,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="6">
-        <v>-8579.424</v>
+        <v>-7620.808</v>
       </c>
       <c r="AH32" s="1">
-        <v>-21662.728</v>
+        <v>-17849.112</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -9607,26 +9559,26 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>3517171.0</v>
+        <v>3385361.0</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R33" s="1">
-        <v>3517171.0</v>
+        <v>3385361.0</v>
       </c>
       <c r="S33" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T33" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U33" s="1">
-        <v>2813736.8</v>
+        <v>2708288.8</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="5">
-        <v>11137.368</v>
+        <v>10082.888</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="5">
@@ -9634,13 +9586,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>2520911.0</v>
+        <v>2424111.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>2632821.838</v>
+        <v>2540300.244</v>
       </c>
       <c r="AC33" s="5">
-        <v>996260.0</v>
+        <v>961250.0</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
@@ -9648,10 +9600,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="6">
-        <v>-11137.368</v>
+        <v>-10082.888</v>
       </c>
       <c r="AH33" s="1">
-        <v>-32800.096</v>
+        <v>-27932.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -9704,26 +9656,26 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>3868888.0</v>
+        <v>3723897.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.09</v>
       </c>
       <c r="R34" s="1">
-        <v>3868888.0</v>
+        <v>3723897.0</v>
       </c>
       <c r="S34" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T34" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U34" s="1">
-        <v>3095110.4</v>
+        <v>2979117.6</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="5">
-        <v>13951.104</v>
+        <v>12791.176</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="5">
@@ -9731,13 +9683,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>2739539.0</v>
+        <v>2634545.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>2984538.838</v>
+        <v>2878836.244</v>
       </c>
       <c r="AC34" s="5">
-        <v>1129349.0</v>
+        <v>1089352.0</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
@@ -9745,10 +9697,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="6">
-        <v>-13951.104</v>
+        <v>-12791.176</v>
       </c>
       <c r="AH34" s="1">
-        <v>-46751.2</v>
+        <v>-40723.176</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -9801,26 +9753,26 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>4255777.0</v>
+        <v>4096287.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>4255777.0</v>
+        <v>4096287.0</v>
       </c>
       <c r="S35" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T35" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U35" s="1">
-        <v>3404621.6</v>
+        <v>3277029.6</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="5">
-        <v>17046.216</v>
+        <v>15770.296</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="5">
@@ -9828,13 +9780,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>2980029.0</v>
+        <v>2866023.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>3371427.838</v>
+        <v>3251226.244</v>
       </c>
       <c r="AC35" s="5">
-        <v>1275748.0</v>
+        <v>1230264.0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
@@ -9842,10 +9794,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="6">
-        <v>-17046.216</v>
+        <v>-15770.296</v>
       </c>
       <c r="AH35" s="1">
-        <v>-63797.416</v>
+        <v>-56493.472</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -9898,26 +9850,26 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>4681355.0</v>
+        <v>4505916.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>4681355.0</v>
+        <v>4505916.0</v>
       </c>
       <c r="S36" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T36" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U36" s="1">
-        <v>3745084.0</v>
+        <v>3604732.8</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="5">
-        <v>20450.84</v>
+        <v>19047.328</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="5">
@@ -9925,13 +9877,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>3244568.0</v>
+        <v>3120648.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>3797005.838</v>
+        <v>3660855.244</v>
       </c>
       <c r="AC36" s="5">
-        <v>1436787.0</v>
+        <v>1385268.0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
@@ -9939,10 +9891,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="6">
-        <v>-20450.84</v>
+        <v>-19047.328</v>
       </c>
       <c r="AH36" s="1">
-        <v>-84248.256</v>
+        <v>-75540.8</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -9995,26 +9947,26 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>5149491.0</v>
+        <v>4956508.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>5149491.0</v>
+        <v>4956508.0</v>
       </c>
       <c r="S37" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T37" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U37" s="1">
-        <v>4119592.8</v>
+        <v>3965206.4</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="5">
-        <v>24195.928</v>
+        <v>22652.064</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="5">
@@ -10022,13 +9974,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>3535561.0</v>
+        <v>3400736.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>4265141.838</v>
+        <v>4111447.244</v>
       </c>
       <c r="AC37" s="5">
-        <v>1613930.0</v>
+        <v>1555772.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
@@ -10036,10 +9988,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="6">
-        <v>-24195.928</v>
+        <v>-22652.064</v>
       </c>
       <c r="AH37" s="1">
-        <v>-108444.184</v>
+        <v>-98192.864</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -10092,26 +10044,26 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>5664440.0</v>
+        <v>5452159.0</v>
       </c>
       <c r="Q38" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>5664440.0</v>
+        <v>5452159.0</v>
       </c>
       <c r="S38" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T38" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U38" s="1">
-        <v>4531552.0</v>
+        <v>4361727.2</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="5">
-        <v>28315.52</v>
+        <v>26617.272</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="5">
@@ -10119,13 +10071,13 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>3855654.0</v>
+        <v>3708833.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>4780090.838</v>
+        <v>4607098.244</v>
       </c>
       <c r="AC38" s="5">
-        <v>1808786.0</v>
+        <v>1743326.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
@@ -10133,10 +10085,10 @@
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="6">
-        <v>-28315.52</v>
+        <v>-26617.272</v>
       </c>
       <c r="AH38" s="1">
-        <v>-136759.704</v>
+        <v>-124810.136</v>
       </c>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
@@ -10189,26 +10141,26 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>6230884.0</v>
+        <v>5997375.0</v>
       </c>
       <c r="Q39" s="2">
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>6230884.0</v>
+        <v>5997375.0</v>
       </c>
       <c r="S39" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T39" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U39" s="1">
-        <v>4984707.2</v>
+        <v>4797900.0</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="5">
-        <v>32847.072</v>
+        <v>30979.0</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="5">
@@ -10216,13 +10168,13 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>4207755.0</v>
+        <v>4047739.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>5346534.838</v>
+        <v>5152314.244</v>
       </c>
       <c r="AC39" s="5">
-        <v>2023129.0</v>
+        <v>1949636.0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
@@ -10230,10 +10182,10 @@
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="6">
-        <v>-32847.072</v>
+        <v>-30979.0</v>
       </c>
       <c r="AH39" s="1">
-        <v>-169606.776</v>
+        <v>-155789.136</v>
       </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
@@ -10286,26 +10238,26 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>6853972.0</v>
+        <v>6597113.0</v>
       </c>
       <c r="Q40" s="12">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>6853972.0</v>
+        <v>6597113.0</v>
       </c>
       <c r="S40" s="11">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T40" s="11">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U40" s="11">
-        <v>5483177.6</v>
+        <v>5277690.4</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>37831.776</v>
+        <v>35776.904</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -10313,13 +10265,13 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>4595067.0</v>
+        <v>4420536.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>5969622.838</v>
+        <v>5752052.244</v>
       </c>
       <c r="AC40" s="11">
-        <v>2258905.0</v>
+        <v>2176577.0</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
@@ -10327,10 +10279,10 @@
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
-        <v>-37831.776</v>
+        <v>-35776.904</v>
       </c>
       <c r="AH40" s="11">
-        <v>-207438.552</v>
+        <v>-191566.04</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
@@ -10383,26 +10335,26 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>7539369.0</v>
+        <v>7256824.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.09</v>
       </c>
       <c r="R41" s="1">
-        <v>7539369.0</v>
+        <v>7256824.0</v>
       </c>
       <c r="S41" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T41" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U41" s="1">
-        <v>6031495.2</v>
+        <v>5805459.2</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="5">
-        <v>43314.952</v>
+        <v>41054.592</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="5">
@@ -10410,13 +10362,13 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>5021109.0</v>
+        <v>4830613.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>6655019.838</v>
+        <v>6411763.244</v>
       </c>
       <c r="AC41" s="5">
-        <v>2518260.0</v>
+        <v>2426211.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
@@ -10424,10 +10376,10 @@
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="6">
-        <v>-43314.952</v>
+        <v>-41054.592</v>
       </c>
       <c r="AH41" s="1">
-        <v>-250753.504</v>
+        <v>-232620.632</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
@@ -10480,26 +10432,26 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>8293306.0</v>
+        <v>7982506.0</v>
       </c>
       <c r="Q42" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R42" s="1">
-        <v>8293306.0</v>
+        <v>7982506.0</v>
       </c>
       <c r="S42" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T42" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U42" s="1">
-        <v>6634644.8</v>
+        <v>6386004.8</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="5">
-        <v>49346.448</v>
+        <v>46860.048</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="5">
@@ -10507,13 +10459,13 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>5489757.0</v>
+        <v>5281697.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>7408956.838</v>
+        <v>7137445.244</v>
       </c>
       <c r="AC42" s="5">
-        <v>2803549.0</v>
+        <v>2700809.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
@@ -10521,10 +10473,10 @@
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="6">
-        <v>-49346.448</v>
+        <v>-46860.048</v>
       </c>
       <c r="AH42" s="1">
-        <v>-300099.952</v>
+        <v>-279480.68</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
@@ -10577,26 +10529,26 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>9122637.0</v>
+        <v>8780757.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>9122637.0</v>
+        <v>8780757.0</v>
       </c>
       <c r="S43" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T43" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U43" s="1">
-        <v>7298109.6</v>
+        <v>7024605.6</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="5">
-        <v>55981.096</v>
+        <v>53246.056</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="5">
@@ -10604,13 +10556,13 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>6005269.0</v>
+        <v>5777890.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>8238287.838</v>
+        <v>7935696.244</v>
       </c>
       <c r="AC43" s="5">
-        <v>3117368.0</v>
+        <v>3002867.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
@@ -10618,10 +10570,10 @@
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="6">
-        <v>-55981.096</v>
+        <v>-53246.056</v>
       </c>
       <c r="AH43" s="1">
-        <v>-356081.048</v>
+        <v>-332726.736</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
@@ -10674,26 +10626,26 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>10034901.0</v>
+        <v>9658833.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>10034901.0</v>
+        <v>9658833.0</v>
       </c>
       <c r="S44" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T44" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U44" s="1">
-        <v>8027920.8</v>
+        <v>7727066.4</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="5">
-        <v>63279.208</v>
+        <v>60270.664</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="5">
@@ -10701,13 +10653,13 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>6572332.0</v>
+        <v>6323702.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>9150551.838</v>
+        <v>8813772.244</v>
       </c>
       <c r="AC44" s="5">
-        <v>3462569.0</v>
+        <v>3335131.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
@@ -10715,10 +10667,10 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="6">
-        <v>-63279.208</v>
+        <v>-60270.664</v>
       </c>
       <c r="AH44" s="1">
-        <v>-419360.256</v>
+        <v>-392997.4</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
@@ -10771,26 +10723,26 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>11038391.0</v>
+        <v>10624716.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.09</v>
       </c>
       <c r="R45" s="1">
-        <v>11038391.0</v>
+        <v>10624716.0</v>
       </c>
       <c r="S45" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T45" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U45" s="1">
-        <v>8830712.8</v>
+        <v>8499772.8</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="5">
-        <v>71307.128</v>
+        <v>67997.728</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="5">
@@ -10798,13 +10750,13 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>7196102.0</v>
+        <v>6924094.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>10154041.838</v>
+        <v>9779655.244</v>
       </c>
       <c r="AC45" s="5">
-        <v>3842289.0</v>
+        <v>3700622.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
@@ -10812,10 +10764,10 @@
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="6">
-        <v>-71307.128</v>
+        <v>-67997.728</v>
       </c>
       <c r="AH45" s="1">
-        <v>-490667.384</v>
+        <v>-460995.128</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
@@ -10868,26 +10820,26 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>12142230.0</v>
+        <v>11687188.0</v>
       </c>
       <c r="Q46" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>12142230.0</v>
+        <v>11687188.0</v>
       </c>
       <c r="S46" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T46" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U46" s="1">
-        <v>9713784.0</v>
+        <v>9349750.4</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="5">
-        <v>80137.84</v>
+        <v>76497.504</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="5">
@@ -10895,13 +10847,13 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>7882248.0</v>
+        <v>7584527.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>11257880.838</v>
+        <v>10842127.244</v>
       </c>
       <c r="AC46" s="5">
-        <v>4259982.0</v>
+        <v>4102661.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
@@ -10909,10 +10861,10 @@
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="6">
-        <v>-80137.84</v>
+        <v>-76497.504</v>
       </c>
       <c r="AH46" s="1">
-        <v>-570805.224</v>
+        <v>-537492.632</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
@@ -10965,26 +10917,26 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>13356453.0</v>
+        <v>12855907.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>13356453.0</v>
+        <v>12855907.0</v>
       </c>
       <c r="S47" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T47" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U47" s="1">
-        <v>10685162.4</v>
+        <v>10284725.6</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="5">
-        <v>89851.624</v>
+        <v>85847.256</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="5">
@@ -10992,13 +10944,13 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>8637009.0</v>
+        <v>8311003.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>12472103.838</v>
+        <v>12010846.244</v>
       </c>
       <c r="AC47" s="5">
-        <v>4719444.0</v>
+        <v>4544904.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
@@ -11006,10 +10958,10 @@
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="6">
-        <v>-89851.624</v>
+        <v>-85847.256</v>
       </c>
       <c r="AH47" s="1">
-        <v>-660656.848</v>
+        <v>-623339.888</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
@@ -11062,26 +11014,26 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>14692098.0</v>
+        <v>14141498.0</v>
       </c>
       <c r="Q48" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>14692098.0</v>
+        <v>14141498.0</v>
       </c>
       <c r="S48" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T48" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U48" s="1">
-        <v>11753678.4</v>
+        <v>11313198.4</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="5">
-        <v>100536.784</v>
+        <v>96131.984</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="5">
@@ -11089,13 +11041,13 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>9467246.0</v>
+        <v>9110126.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>13807748.838</v>
+        <v>13296437.244</v>
       </c>
       <c r="AC48" s="5">
-        <v>5224852.0</v>
+        <v>5031372.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
@@ -11103,10 +11055,10 @@
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="6">
-        <v>-100536.784</v>
+        <v>-96131.984</v>
       </c>
       <c r="AH48" s="1">
-        <v>-761193.632</v>
+        <v>-719471.872</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
@@ -11159,26 +11111,26 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>16161308.0</v>
+        <v>15555648.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>16161308.0</v>
+        <v>15555648.0</v>
       </c>
       <c r="S49" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T49" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U49" s="1">
-        <v>12929046.4</v>
+        <v>12444518.4</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="5">
-        <v>112290.464</v>
+        <v>107445.184</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="5">
@@ -11186,13 +11138,13 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>10380507.0</v>
+        <v>9989162.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>15276958.838</v>
+        <v>14710587.244</v>
       </c>
       <c r="AC49" s="5">
-        <v>5780801.0</v>
+        <v>5566486.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
@@ -11200,10 +11152,10 @@
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="6">
-        <v>-112290.464</v>
+        <v>-107445.184</v>
       </c>
       <c r="AH49" s="1">
-        <v>-873484.096</v>
+        <v>-826917.056</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
@@ -11256,26 +11208,26 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>17777439.0</v>
+        <v>17111213.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>17777439.0</v>
+        <v>17111213.0</v>
       </c>
       <c r="S50" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T50" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U50" s="1">
-        <v>14221951.2</v>
+        <v>13688970.4</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="5">
-        <v>125219.512</v>
+        <v>119889.704</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="5">
@@ -11283,13 +11235,13 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>11385094.0</v>
+        <v>10956101.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>16893089.838</v>
+        <v>16266152.244</v>
       </c>
       <c r="AC50" s="5">
-        <v>6392345.0</v>
+        <v>6155112.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
@@ -11297,10 +11249,10 @@
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="6">
-        <v>-125219.512</v>
+        <v>-119889.704</v>
       </c>
       <c r="AH50" s="1">
-        <v>-998703.608</v>
+        <v>-946806.76</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
@@ -11353,26 +11305,26 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>19555183.0</v>
+        <v>18822334.0</v>
       </c>
       <c r="Q51" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R51" s="1">
-        <v>19555183.0</v>
+        <v>18822334.0</v>
       </c>
       <c r="S51" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T51" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U51" s="1">
-        <v>15644146.4</v>
+        <v>15057867.2</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="5">
-        <v>139441.464</v>
+        <v>133578.672</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="5">
@@ -11380,13 +11332,13 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>12490139.0</v>
+        <v>12019734.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>18670833.838</v>
+        <v>17977273.244</v>
       </c>
       <c r="AC51" s="5">
-        <v>7065044.0</v>
+        <v>6802600.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
@@ -11394,10 +11346,10 @@
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="6">
-        <v>-139441.464</v>
+        <v>-133578.672</v>
       </c>
       <c r="AH51" s="1">
-        <v>-1138145.072</v>
+        <v>-1080385.432</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
@@ -11450,26 +11402,26 @@
       </c>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>21510701.0</v>
+        <v>20704567.0</v>
       </c>
       <c r="Q52" s="16">
         <v>0.09</v>
       </c>
       <c r="R52" s="5">
-        <v>21510701.0</v>
+        <v>20704567.0</v>
       </c>
       <c r="S52" s="5">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T52" s="5">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U52" s="5">
-        <v>17208560.8</v>
+        <v>16563653.6</v>
       </c>
       <c r="V52" s="16"/>
       <c r="W52" s="5">
-        <v>155085.608</v>
+        <v>148636.536</v>
       </c>
       <c r="X52" s="16"/>
       <c r="Y52" s="5">
@@ -11477,13 +11429,13 @@
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>13705689.0</v>
+        <v>13189730.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>20626351.838</v>
+        <v>19859506.244</v>
       </c>
       <c r="AC52" s="5">
-        <v>7805012.0</v>
+        <v>7514837.0</v>
       </c>
       <c r="AD52" s="16"/>
       <c r="AE52" s="5">
@@ -11491,10 +11443,10 @@
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="5">
-        <v>-155085.608</v>
+        <v>-148636.536</v>
       </c>
       <c r="AH52" s="5">
-        <v>-1293230.68</v>
+        <v>-1229021.968</v>
       </c>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="5">
@@ -14421,13 +14373,11 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>27179.7</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>27179.7</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -14436,11 +14386,11 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>123543</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="5">
-        <v>1235.43</v>
+        <v>0.0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="5">
@@ -14448,17 +14398,15 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1199.0</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <v>114782.7</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="5">
-        <v>25981.0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="1">
         <v>0</v>
       </c>
@@ -14481,9 +14429,7 @@
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO21"/>
     </row>
     <row r="22" spans="1:41">
       <c r="A22">
@@ -14522,13 +14468,11 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>6578.0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>6578.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -14537,11 +14481,11 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>29898</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="5">
-        <v>298.98</v>
+        <v>0.0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="5">
@@ -14549,17 +14493,15 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>290.0</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>27778.0</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="5">
-        <v>6288.0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="1">
         <v>0</v>
       </c>
@@ -14582,9 +14524,7 @@
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" t="s">
-        <v>55</v>
-      </c>
+      <c r="AO22"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23">
@@ -14623,13 +14563,11 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1591.9</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>1591.9</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -14638,11 +14576,11 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>7236</v>
+        <v>0</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="5">
-        <v>72.36</v>
+        <v>0.0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="5">
@@ -14650,17 +14588,15 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>70.0</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>6722.9</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="5">
-        <v>1522.0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="1">
         <v>0</v>
       </c>
@@ -14683,9 +14619,7 @@
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" t="s">
-        <v>56</v>
-      </c>
+      <c r="AO23"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24">
@@ -14724,13 +14658,11 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>384.8</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>384.8</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -14739,11 +14671,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1751</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
-        <v>17.51</v>
+        <v>0.0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="5">
@@ -14751,17 +14683,15 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>17.0</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <v>1626.8</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="5">
-        <v>368.0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="1">
         <v>0</v>
       </c>
@@ -14784,9 +14714,7 @@
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" t="s">
-        <v>57</v>
-      </c>
+      <c r="AO24"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25">
@@ -14825,13 +14753,11 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>94.0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>94.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -14840,11 +14766,11 @@
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="5">
-        <v>4.24</v>
+        <v>0.0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="5">
@@ -14852,17 +14778,15 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>4.0</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>394.0</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="1">
         <v>0</v>
       </c>
@@ -14885,9 +14809,7 @@
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" t="s">
-        <v>58</v>
-      </c>
+      <c r="AO25"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26">
@@ -14926,13 +14848,11 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -14941,11 +14861,11 @@
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="5">
-        <v>1.03</v>
+        <v>0.0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="5">
@@ -14953,17 +14873,15 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>95.7</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="1">
         <v>0</v>
       </c>
@@ -14986,9 +14904,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" t="s">
-        <v>59</v>
-      </c>
+      <c r="AO26"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27">
@@ -15027,13 +14943,11 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -15042,11 +14956,11 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="5">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="5">
@@ -15054,17 +14968,15 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="1">
         <v>0</v>
       </c>
@@ -15087,9 +14999,7 @@
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" t="s">
-        <v>60</v>
-      </c>
+      <c r="AO27"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28">
@@ -15128,13 +15038,11 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -15143,11 +15051,11 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="5">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="5">
@@ -15155,17 +15063,15 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="1">
         <v>0</v>
       </c>
@@ -15188,9 +15094,7 @@
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" t="s">
-        <v>61</v>
-      </c>
+      <c r="AO28"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29">
@@ -18695,7 +18599,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -18703,19 +18607,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -18727,7 +18631,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -19508,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -19595,7 +19499,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -19682,7 +19586,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -19769,7 +19673,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
       <c r="AO18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -19856,7 +19760,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -19943,7 +19847,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
       <c r="AO20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -19968,48 +19872,22 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="6">
-        <v>27179.7</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R21" s="1">
-        <v>27179.7</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>123543</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="5"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="1">
-        <v>1927.7</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>114782.7</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>25252.0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="6">
         <v>0.0</v>
@@ -20029,9 +19907,7 @@
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" t="s">
-        <v>70</v>
-      </c>
+      <c r="AO21"/>
     </row>
     <row r="22" spans="1:41">
       <c r="A22">
@@ -20055,48 +19931,22 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="6">
-        <v>6578.0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R22" s="1">
-        <v>6578.0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>29898</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="1">
-        <v>467.0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>27778.0</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>6111.0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="6">
         <v>0.0</v>
@@ -20116,9 +19966,7 @@
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" t="s">
-        <v>71</v>
-      </c>
+      <c r="AO22"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23">
@@ -20142,48 +19990,22 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="6">
-        <v>1591.9</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1591.9</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>7236</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="5"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="1">
-        <v>112.9</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>6722.9</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>1479.0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="1"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="6">
         <v>0.0</v>
@@ -20203,9 +20025,7 @@
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" t="s">
-        <v>72</v>
-      </c>
+      <c r="AO23"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24">
@@ -20229,48 +20049,22 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="6">
-        <v>384.8</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>384.8</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1751</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>1626.8</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>358.0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="1"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="6">
         <v>0.0</v>
@@ -20290,9 +20084,7 @@
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" t="s">
-        <v>73</v>
-      </c>
+      <c r="AO24"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25">
@@ -20316,48 +20108,22 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="6">
-        <v>94.0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>424</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>394.0</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>87.0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="1"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="6">
         <v>0.0</v>
@@ -20377,9 +20143,7 @@
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" t="s">
-        <v>74</v>
-      </c>
+      <c r="AO25"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26">
@@ -20403,48 +20167,22 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R26" s="1">
-        <v>22.7</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>103</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>95.7</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="1"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="6">
         <v>0.0</v>
@@ -20464,9 +20202,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" t="s">
-        <v>75</v>
-      </c>
+      <c r="AO26"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27">
@@ -20490,48 +20226,22 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R27" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>25</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="1"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="6">
         <v>0.0</v>
@@ -20551,9 +20261,7 @@
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" t="s">
-        <v>76</v>
-      </c>
+      <c r="AO27"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28">
@@ -20577,48 +20285,22 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>6</v>
-      </c>
-      <c r="V28" s="2">
-        <v>1</v>
-      </c>
-      <c r="W28" s="5">
-        <v>0</v>
-      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="5"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="6">
         <v>0.0</v>
@@ -20638,9 +20320,7 @@
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" t="s">
-        <v>77</v>
-      </c>
+      <c r="AO28"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29">
@@ -23281,7 +22961,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -23289,19 +22969,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -23313,7 +22993,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -24094,7 +23774,7 @@
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -24181,7 +23861,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -24268,7 +23948,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -24355,7 +24035,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
       <c r="AO18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -24442,7 +24122,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -24531,7 +24211,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -24557,19 +24237,19 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>1111438.0726</v>
+        <v>1078680.0</v>
       </c>
       <c r="Q21" s="2">
         <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>1111438.0726</v>
+        <v>1078680.0</v>
       </c>
       <c r="S21" s="1">
-        <v>874840.822</v>
+        <v>845060.756</v>
       </c>
       <c r="T21" s="1">
-        <v>874840.822</v>
+        <v>845060.756</v>
       </c>
       <c r="U21" s="1">
         <v>862944.0</v>
@@ -24584,13 +24264,13 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1021910.0726</v>
+        <v>990278.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>236597.2506</v>
+        <v>233619.244</v>
       </c>
       <c r="AC21" s="5">
-        <v>89528.0</v>
+        <v>88402.0</v>
       </c>
       <c r="AD21" s="2">
         <v>0.3784</v>
@@ -24613,14 +24293,12 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>29780.066</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN21" s="2"/>
       <c r="AO21" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -24646,22 +24324,22 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>1230509.04</v>
+        <v>1186548.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>1230509.04</v>
+        <v>1186548.0</v>
       </c>
       <c r="S22" s="1">
-        <v>882047.222</v>
+        <v>845060.756</v>
       </c>
       <c r="T22" s="1">
-        <v>882047.222</v>
+        <v>845060.756</v>
       </c>
       <c r="U22" s="1">
-        <v>978065.6</v>
+        <v>949238.4</v>
       </c>
       <c r="V22" s="2">
         <v>0.8</v>
@@ -24673,13 +24351,13 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1098651.04</v>
+        <v>1057329.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>348461.818</v>
+        <v>341487.244</v>
       </c>
       <c r="AC22" s="5">
-        <v>131858.0</v>
+        <v>129219.0</v>
       </c>
       <c r="AD22" s="2">
         <v>0.3784</v>
@@ -24702,14 +24380,12 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>7206.4</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN22" s="2"/>
       <c r="AO22" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -24735,22 +24411,22 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1355478.9302</v>
+        <v>1305203.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>1355478.9302</v>
+        <v>1305203.0</v>
       </c>
       <c r="S23" s="1">
-        <v>883791.704</v>
+        <v>845060.756</v>
       </c>
       <c r="T23" s="1">
-        <v>883791.704</v>
+        <v>845060.756</v>
       </c>
       <c r="U23" s="1">
-        <v>1082848.0</v>
+        <v>1044162.4</v>
       </c>
       <c r="V23" s="2">
         <v>0.8</v>
@@ -24762,13 +24438,13 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1176992.9302</v>
+        <v>1131085.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>471687.2262</v>
+        <v>460142.244</v>
       </c>
       <c r="AC23" s="5">
-        <v>178486.0</v>
+        <v>174118.0</v>
       </c>
       <c r="AD23" s="2">
         <v>0.3784</v>
@@ -24791,14 +24467,12 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1744.482</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" s="1"/>
-      <c r="AN23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN23" s="2"/>
       <c r="AO23" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -24824,22 +24498,22 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>1491491.7764</v>
+        <v>1435723.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.1</v>
       </c>
       <c r="R24" s="1">
-        <v>1491491.7764</v>
+        <v>1435723.0</v>
       </c>
       <c r="S24" s="1">
-        <v>884214.228</v>
+        <v>845060.756</v>
       </c>
       <c r="T24" s="1">
-        <v>884214.228</v>
+        <v>845060.756</v>
       </c>
       <c r="U24" s="1">
-        <v>1192821.6</v>
+        <v>1148578.4</v>
       </c>
       <c r="V24" s="2">
         <v>0.8</v>
@@ -24851,13 +24525,13 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1261697.7764</v>
+        <v>1212216.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>607277.5484</v>
+        <v>590662.244</v>
       </c>
       <c r="AC24" s="5">
-        <v>229794.0</v>
+        <v>223507.0</v>
       </c>
       <c r="AD24" s="2">
         <v>0.3784</v>
@@ -24880,14 +24554,12 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>422.52399999998</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -24913,22 +24585,22 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>1640752.76</v>
+        <v>1579295.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.1</v>
       </c>
       <c r="R25" s="1">
-        <v>1640752.76</v>
+        <v>1579295.0</v>
       </c>
       <c r="S25" s="1">
-        <v>884315.828</v>
+        <v>845060.756</v>
       </c>
       <c r="T25" s="1">
-        <v>884315.828</v>
+        <v>845060.756</v>
       </c>
       <c r="U25" s="1">
-        <v>1312512.8</v>
+        <v>1263436.0</v>
       </c>
       <c r="V25" s="2">
         <v>0.8</v>
@@ -24940,13 +24612,13 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1354516.76</v>
+        <v>1301461.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>756436.932</v>
+        <v>734234.244</v>
       </c>
       <c r="AC25" s="5">
-        <v>286236.0</v>
+        <v>277834.0</v>
       </c>
       <c r="AD25" s="2">
         <v>0.3784</v>
@@ -24969,14 +24641,12 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>101.59999999998</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" s="1"/>
-      <c r="AN25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -25002,22 +24672,22 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>1804854.8466</v>
+        <v>1737225.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>1804854.8466</v>
+        <v>1737225.0</v>
       </c>
       <c r="S26" s="1">
-        <v>884340.234</v>
+        <v>845060.756</v>
       </c>
       <c r="T26" s="1">
-        <v>884340.234</v>
+        <v>845060.756</v>
       </c>
       <c r="U26" s="1">
-        <v>1443862.4</v>
+        <v>1389780.0</v>
       </c>
       <c r="V26" s="2">
         <v>0.8</v>
@@ -25029,13 +24699,13 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1456531.8466</v>
+        <v>1399630.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>920514.6126</v>
+        <v>892164.244</v>
       </c>
       <c r="AC26" s="5">
-        <v>348323.0</v>
+        <v>337595.0</v>
       </c>
       <c r="AD26" s="2">
         <v>0.3784</v>
@@ -25058,14 +24728,12 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>24.405999999959</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -25091,22 +24759,22 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>1985347.8156</v>
+        <v>1910948.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>1985347.8156</v>
+        <v>1910948.0</v>
       </c>
       <c r="S27" s="1">
-        <v>884346.43</v>
+        <v>845060.756</v>
       </c>
       <c r="T27" s="1">
-        <v>884346.43</v>
+        <v>845060.756</v>
       </c>
       <c r="U27" s="1">
-        <v>1588272.8</v>
+        <v>1528758.4</v>
       </c>
       <c r="V27" s="2">
         <v>0.8</v>
@@ -25118,13 +24786,13 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1568728.8156</v>
+        <v>1507616.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>1101001.3856</v>
+        <v>1065887.244</v>
       </c>
       <c r="AC27" s="5">
-        <v>416619.0</v>
+        <v>403332.0</v>
       </c>
       <c r="AD27" s="2">
         <v>0.3784</v>
@@ -25147,14 +24815,12 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>6.1959999999963</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
-      <c r="AN27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -25180,42 +24846,40 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>2183884.6368</v>
+        <v>2102043.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>2183884.6368</v>
+        <v>2102043.0</v>
       </c>
       <c r="S28" s="1">
-        <v>884347.918</v>
+        <v>845060.756</v>
       </c>
       <c r="T28" s="1">
-        <v>884347.918</v>
+        <v>845060.756</v>
       </c>
       <c r="U28" s="1">
-        <v>1747106.4</v>
+        <v>1681634.4</v>
       </c>
       <c r="V28" s="2">
         <v>0.8</v>
       </c>
       <c r="W28" s="5">
-        <v>471.064</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1692139.6368</v>
+        <v>1626401.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1299536.7188</v>
+        <v>1256982.244</v>
       </c>
       <c r="AC28" s="5">
-        <v>491745.0</v>
+        <v>475642.0</v>
       </c>
       <c r="AD28" s="2">
         <v>0.3784</v>
@@ -25225,10 +24889,10 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="6">
-        <v>-471.064</v>
+        <v>0.0</v>
       </c>
       <c r="AH28" s="1">
-        <v>-471.064</v>
+        <v>0.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -25238,14 +24902,12 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1.4880000000121</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN28" s="2"/>
       <c r="AO28" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -25271,28 +24933,28 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>2402275.3684</v>
+        <v>2312247.0</v>
       </c>
       <c r="Q29" s="2">
         <v>0.1</v>
       </c>
       <c r="R29" s="1">
-        <v>2402275.3684</v>
+        <v>2312247.0</v>
       </c>
       <c r="S29" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T29" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U29" s="1">
-        <v>1921819.2</v>
+        <v>1849797.6</v>
       </c>
       <c r="V29" s="2">
         <v>0.8</v>
       </c>
       <c r="W29" s="5">
-        <v>2218.192</v>
+        <v>1497.976</v>
       </c>
       <c r="X29" s="2">
         <v>0.01</v>
@@ -25300,13 +24962,13 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1827892.3684</v>
+        <v>1757064.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1517926.2064</v>
+        <v>1467186.244</v>
       </c>
       <c r="AC29" s="5">
-        <v>574383.0</v>
+        <v>555183.0</v>
       </c>
       <c r="AD29" s="2">
         <v>0.3784</v>
@@ -25316,10 +24978,10 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="6">
-        <v>-2218.192</v>
+        <v>-1497.976</v>
       </c>
       <c r="AH29" s="1">
-        <v>-2689.256</v>
+        <v>-1497.976</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -25329,14 +24991,12 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1.2439999999478</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" s="1"/>
-      <c r="AN29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -25362,28 +25022,28 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>2642503.0</v>
+        <v>2543472.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>2642503.0</v>
+        <v>2543472.0</v>
       </c>
       <c r="S30" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T30" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U30" s="1">
-        <v>2114002.4</v>
+        <v>2034777.6</v>
       </c>
       <c r="V30" s="2">
         <v>0.8</v>
       </c>
       <c r="W30" s="5">
-        <v>4140.024</v>
+        <v>3347.776</v>
       </c>
       <c r="X30" s="2">
         <v>0.01</v>
@@ -25391,13 +25051,13 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1977218.0</v>
+        <v>1900793.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1758153.838</v>
+        <v>1698411.244</v>
       </c>
       <c r="AC30" s="5">
-        <v>665285.0</v>
+        <v>642679.0</v>
       </c>
       <c r="AD30" s="2">
         <v>0.3784</v>
@@ -25407,10 +25067,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="6">
-        <v>-4140.024</v>
+        <v>-3347.776</v>
       </c>
       <c r="AH30" s="1">
-        <v>-6829.28</v>
+        <v>-4845.752</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -25425,7 +25085,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="2"/>
       <c r="AO30" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -25451,28 +25111,28 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>2906753.0</v>
+        <v>2797819.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.1</v>
       </c>
       <c r="R31" s="1">
-        <v>2906753.0</v>
+        <v>2797819.0</v>
       </c>
       <c r="S31" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T31" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U31" s="1">
-        <v>2325402.4</v>
+        <v>2238255.2</v>
       </c>
       <c r="V31" s="2">
         <v>0.8</v>
       </c>
       <c r="W31" s="5">
-        <v>6254.024</v>
+        <v>5382.552</v>
       </c>
       <c r="X31" s="2">
         <v>0.01</v>
@@ -25480,13 +25140,13 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>2141475.0</v>
+        <v>2058895.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>2022403.838</v>
+        <v>1952758.244</v>
       </c>
       <c r="AC31" s="5">
-        <v>765278.0</v>
+        <v>738924.0</v>
       </c>
       <c r="AD31" s="2">
         <v>0.3784</v>
@@ -25496,10 +25156,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="6">
-        <v>-6254.024</v>
+        <v>-5382.552</v>
       </c>
       <c r="AH31" s="1">
-        <v>-13083.304</v>
+        <v>-10228.304</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -25514,7 +25174,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="2"/>
       <c r="AO31" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -25540,28 +25200,28 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>3197428.0</v>
+        <v>3077601.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>3197428.0</v>
+        <v>3077601.0</v>
       </c>
       <c r="S32" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T32" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U32" s="1">
-        <v>2557942.4</v>
+        <v>2462080.8</v>
       </c>
       <c r="V32" s="2">
         <v>0.8</v>
       </c>
       <c r="W32" s="5">
-        <v>8579.424</v>
+        <v>7620.808</v>
       </c>
       <c r="X32" s="2">
         <v>0.01</v>
@@ -25569,13 +25229,13 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>2322159.0</v>
+        <v>2232808.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>2313078.838</v>
+        <v>2232540.244</v>
       </c>
       <c r="AC32" s="5">
-        <v>875269.0</v>
+        <v>844793.0</v>
       </c>
       <c r="AD32" s="2">
         <v>0.3784</v>
@@ -25585,10 +25245,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="6">
-        <v>-8579.424</v>
+        <v>-7620.808</v>
       </c>
       <c r="AH32" s="1">
-        <v>-21662.728</v>
+        <v>-17849.112</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -25603,7 +25263,7 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="2"/>
       <c r="AO32" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -25629,28 +25289,28 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>3517171.0</v>
+        <v>3385361.0</v>
       </c>
       <c r="Q33" s="2">
         <v>0.1</v>
       </c>
       <c r="R33" s="1">
-        <v>3517171.0</v>
+        <v>3385361.0</v>
       </c>
       <c r="S33" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T33" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U33" s="1">
-        <v>2813736.8</v>
+        <v>2708288.8</v>
       </c>
       <c r="V33" s="2">
         <v>0.8</v>
       </c>
       <c r="W33" s="5">
-        <v>11137.368</v>
+        <v>10082.888</v>
       </c>
       <c r="X33" s="2">
         <v>0.01</v>
@@ -25658,13 +25318,13 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>2520911.0</v>
+        <v>2424111.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>2632821.838</v>
+        <v>2540300.244</v>
       </c>
       <c r="AC33" s="5">
-        <v>996260.0</v>
+        <v>961250.0</v>
       </c>
       <c r="AD33" s="2">
         <v>0.3784</v>
@@ -25674,10 +25334,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="6">
-        <v>-11137.368</v>
+        <v>-10082.888</v>
       </c>
       <c r="AH33" s="1">
-        <v>-32800.096</v>
+        <v>-27932.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -25692,7 +25352,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="2"/>
       <c r="AO33" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -25718,28 +25378,28 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>3868888.0</v>
+        <v>3723897.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.1</v>
       </c>
       <c r="R34" s="1">
-        <v>3868888.0</v>
+        <v>3723897.0</v>
       </c>
       <c r="S34" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T34" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U34" s="1">
-        <v>3095110.4</v>
+        <v>2979117.6</v>
       </c>
       <c r="V34" s="2">
         <v>0.8</v>
       </c>
       <c r="W34" s="5">
-        <v>13951.104</v>
+        <v>12791.176</v>
       </c>
       <c r="X34" s="2">
         <v>0.01</v>
@@ -25747,13 +25407,13 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>2739539.0</v>
+        <v>2634545.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>2984538.838</v>
+        <v>2878836.244</v>
       </c>
       <c r="AC34" s="5">
-        <v>1129349.0</v>
+        <v>1089352.0</v>
       </c>
       <c r="AD34" s="2">
         <v>0.3784</v>
@@ -25763,10 +25423,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="6">
-        <v>-13951.104</v>
+        <v>-12791.176</v>
       </c>
       <c r="AH34" s="1">
-        <v>-46751.2</v>
+        <v>-40723.176</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -25781,7 +25441,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
       <c r="AO34" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -25807,28 +25467,28 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>4255777.0</v>
+        <v>4096287.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>4255777.0</v>
+        <v>4096287.0</v>
       </c>
       <c r="S35" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T35" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U35" s="1">
-        <v>3404621.6</v>
+        <v>3277029.6</v>
       </c>
       <c r="V35" s="2">
         <v>0.8</v>
       </c>
       <c r="W35" s="5">
-        <v>17046.216</v>
+        <v>15770.296</v>
       </c>
       <c r="X35" s="2">
         <v>0.01</v>
@@ -25836,13 +25496,13 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>2980029.0</v>
+        <v>2866023.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>3371427.838</v>
+        <v>3251226.244</v>
       </c>
       <c r="AC35" s="5">
-        <v>1275748.0</v>
+        <v>1230264.0</v>
       </c>
       <c r="AD35" s="2">
         <v>0.3784</v>
@@ -25852,10 +25512,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="6">
-        <v>-17046.216</v>
+        <v>-15770.296</v>
       </c>
       <c r="AH35" s="1">
-        <v>-63797.416</v>
+        <v>-56493.472</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -25870,7 +25530,7 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="2"/>
       <c r="AO35" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -25896,28 +25556,28 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>4681355.0</v>
+        <v>4505916.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>4681355.0</v>
+        <v>4505916.0</v>
       </c>
       <c r="S36" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T36" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U36" s="1">
-        <v>3745084.0</v>
+        <v>3604732.8</v>
       </c>
       <c r="V36" s="2">
         <v>0.8</v>
       </c>
       <c r="W36" s="5">
-        <v>20450.84</v>
+        <v>19047.328</v>
       </c>
       <c r="X36" s="2">
         <v>0.01</v>
@@ -25925,13 +25585,13 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>3244568.0</v>
+        <v>3120648.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>3797005.838</v>
+        <v>3660855.244</v>
       </c>
       <c r="AC36" s="5">
-        <v>1436787.0</v>
+        <v>1385268.0</v>
       </c>
       <c r="AD36" s="2">
         <v>0.3784</v>
@@ -25941,10 +25601,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="6">
-        <v>-20450.84</v>
+        <v>-19047.328</v>
       </c>
       <c r="AH36" s="1">
-        <v>-84248.256</v>
+        <v>-75540.8</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -25959,7 +25619,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="2"/>
       <c r="AO36" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -25985,28 +25645,28 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>5149491.0</v>
+        <v>4956508.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>5149491.0</v>
+        <v>4956508.0</v>
       </c>
       <c r="S37" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T37" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U37" s="1">
-        <v>4119592.8</v>
+        <v>3965206.4</v>
       </c>
       <c r="V37" s="2">
         <v>0.8</v>
       </c>
       <c r="W37" s="5">
-        <v>24195.928</v>
+        <v>22652.064</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
@@ -26014,13 +25674,13 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>3535561.0</v>
+        <v>3400736.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>4265141.838</v>
+        <v>4111447.244</v>
       </c>
       <c r="AC37" s="5">
-        <v>1613930.0</v>
+        <v>1555772.0</v>
       </c>
       <c r="AD37" s="2">
         <v>0.3784</v>
@@ -26030,10 +25690,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="6">
-        <v>-24195.928</v>
+        <v>-22652.064</v>
       </c>
       <c r="AH37" s="1">
-        <v>-108444.184</v>
+        <v>-98192.864</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -26048,7 +25708,7 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="2"/>
       <c r="AO37" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -26074,28 +25734,28 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>5664440.0</v>
+        <v>5452159.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>5664440.0</v>
+        <v>5452159.0</v>
       </c>
       <c r="S38" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T38" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U38" s="1">
-        <v>4531552.0</v>
+        <v>4361727.2</v>
       </c>
       <c r="V38" s="2">
         <v>0.8</v>
       </c>
       <c r="W38" s="5">
-        <v>28315.52</v>
+        <v>26617.272</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
@@ -26103,13 +25763,13 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>3855654.0</v>
+        <v>3708833.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>4780090.838</v>
+        <v>4607098.244</v>
       </c>
       <c r="AC38" s="5">
-        <v>1808786.0</v>
+        <v>1743326.0</v>
       </c>
       <c r="AD38" s="2">
         <v>0.3784</v>
@@ -26119,10 +25779,10 @@
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="6">
-        <v>-28315.52</v>
+        <v>-26617.272</v>
       </c>
       <c r="AH38" s="1">
-        <v>-136759.704</v>
+        <v>-124810.136</v>
       </c>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
@@ -26137,7 +25797,7 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="2"/>
       <c r="AO38" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -26163,28 +25823,28 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>6230884.0</v>
+        <v>5997375.0</v>
       </c>
       <c r="Q39" s="2">
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>6230884.0</v>
+        <v>5997375.0</v>
       </c>
       <c r="S39" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T39" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U39" s="1">
-        <v>4984707.2</v>
+        <v>4797900.0</v>
       </c>
       <c r="V39" s="2">
         <v>0.8</v>
       </c>
       <c r="W39" s="5">
-        <v>32847.072</v>
+        <v>30979.0</v>
       </c>
       <c r="X39" s="2">
         <v>0.01</v>
@@ -26192,13 +25852,13 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>4207755.0</v>
+        <v>4047739.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>5346534.838</v>
+        <v>5152314.244</v>
       </c>
       <c r="AC39" s="5">
-        <v>2023129.0</v>
+        <v>1949636.0</v>
       </c>
       <c r="AD39" s="2">
         <v>0.3784</v>
@@ -26208,10 +25868,10 @@
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="6">
-        <v>-32847.072</v>
+        <v>-30979.0</v>
       </c>
       <c r="AH39" s="1">
-        <v>-169606.776</v>
+        <v>-155789.136</v>
       </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
@@ -26226,7 +25886,7 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="2"/>
       <c r="AO39" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -26252,28 +25912,28 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>6853972.0</v>
+        <v>6597113.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>6853972.0</v>
+        <v>6597113.0</v>
       </c>
       <c r="S40" s="11">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T40" s="11">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U40" s="11">
-        <v>5483177.6</v>
+        <v>5277690.4</v>
       </c>
       <c r="V40" s="12">
         <v>0.8</v>
       </c>
       <c r="W40" s="11">
-        <v>37831.776</v>
+        <v>35776.904</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
@@ -26281,13 +25941,13 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>4595067.0</v>
+        <v>4420536.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>5969622.838</v>
+        <v>5752052.244</v>
       </c>
       <c r="AC40" s="11">
-        <v>2258905.0</v>
+        <v>2176577.0</v>
       </c>
       <c r="AD40" s="12">
         <v>0.3784</v>
@@ -26297,10 +25957,10 @@
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
-        <v>-37831.776</v>
+        <v>-35776.904</v>
       </c>
       <c r="AH40" s="11">
-        <v>-207438.552</v>
+        <v>-191566.04</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
@@ -26315,7 +25975,7 @@
       <c r="AM40" s="11"/>
       <c r="AN40" s="12"/>
       <c r="AO40" s="10" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -26341,28 +26001,28 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>7539369.0</v>
+        <v>7256824.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>7539369.0</v>
+        <v>7256824.0</v>
       </c>
       <c r="S41" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T41" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U41" s="1">
-        <v>6031495.2</v>
+        <v>5805459.2</v>
       </c>
       <c r="V41" s="2">
         <v>0.8</v>
       </c>
       <c r="W41" s="5">
-        <v>43314.952</v>
+        <v>41054.592</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
@@ -26370,13 +26030,13 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>5021109.0</v>
+        <v>4830613.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>6655019.838</v>
+        <v>6411763.244</v>
       </c>
       <c r="AC41" s="5">
-        <v>2518260.0</v>
+        <v>2426211.0</v>
       </c>
       <c r="AD41" s="2">
         <v>0.3784</v>
@@ -26386,10 +26046,10 @@
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="6">
-        <v>-43314.952</v>
+        <v>-41054.592</v>
       </c>
       <c r="AH41" s="1">
-        <v>-250753.504</v>
+        <v>-232620.632</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
@@ -26404,7 +26064,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="2"/>
       <c r="AO41" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -26430,28 +26090,28 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>8293306.0</v>
+        <v>7982506.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>8293306.0</v>
+        <v>7982506.0</v>
       </c>
       <c r="S42" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T42" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U42" s="1">
-        <v>6634644.8</v>
+        <v>6386004.8</v>
       </c>
       <c r="V42" s="2">
         <v>0.8</v>
       </c>
       <c r="W42" s="5">
-        <v>49346.448</v>
+        <v>46860.048</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
@@ -26459,13 +26119,13 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>5489757.0</v>
+        <v>5281697.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>7408956.838</v>
+        <v>7137445.244</v>
       </c>
       <c r="AC42" s="5">
-        <v>2803549.0</v>
+        <v>2700809.0</v>
       </c>
       <c r="AD42" s="2">
         <v>0.3784</v>
@@ -26475,10 +26135,10 @@
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="6">
-        <v>-49346.448</v>
+        <v>-46860.048</v>
       </c>
       <c r="AH42" s="1">
-        <v>-300099.952</v>
+        <v>-279480.68</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
@@ -26493,7 +26153,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="2"/>
       <c r="AO42" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -26519,28 +26179,28 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>9122637.0</v>
+        <v>8780757.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>9122637.0</v>
+        <v>8780757.0</v>
       </c>
       <c r="S43" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T43" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U43" s="1">
-        <v>7298109.6</v>
+        <v>7024605.6</v>
       </c>
       <c r="V43" s="2">
         <v>0.8</v>
       </c>
       <c r="W43" s="5">
-        <v>55981.096</v>
+        <v>53246.056</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
@@ -26548,13 +26208,13 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>6005269.0</v>
+        <v>5777890.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>8238287.838</v>
+        <v>7935696.244</v>
       </c>
       <c r="AC43" s="5">
-        <v>3117368.0</v>
+        <v>3002867.0</v>
       </c>
       <c r="AD43" s="2">
         <v>0.3784</v>
@@ -26564,10 +26224,10 @@
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="6">
-        <v>-55981.096</v>
+        <v>-53246.056</v>
       </c>
       <c r="AH43" s="1">
-        <v>-356081.048</v>
+        <v>-332726.736</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
@@ -26582,7 +26242,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="2"/>
       <c r="AO43" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -26608,28 +26268,28 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>10034901.0</v>
+        <v>9658833.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>10034901.0</v>
+        <v>9658833.0</v>
       </c>
       <c r="S44" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T44" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U44" s="1">
-        <v>8027920.8</v>
+        <v>7727066.4</v>
       </c>
       <c r="V44" s="2">
         <v>0.8</v>
       </c>
       <c r="W44" s="5">
-        <v>63279.208</v>
+        <v>60270.664</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
@@ -26637,13 +26297,13 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>6572332.0</v>
+        <v>6323702.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>9150551.838</v>
+        <v>8813772.244</v>
       </c>
       <c r="AC44" s="5">
-        <v>3462569.0</v>
+        <v>3335131.0</v>
       </c>
       <c r="AD44" s="2">
         <v>0.3784</v>
@@ -26653,10 +26313,10 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="6">
-        <v>-63279.208</v>
+        <v>-60270.664</v>
       </c>
       <c r="AH44" s="1">
-        <v>-419360.256</v>
+        <v>-392997.4</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
@@ -26671,7 +26331,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="2"/>
       <c r="AO44" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -26697,28 +26357,28 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>11038391.0</v>
+        <v>10624716.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>11038391.0</v>
+        <v>10624716.0</v>
       </c>
       <c r="S45" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T45" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U45" s="1">
-        <v>8830712.8</v>
+        <v>8499772.8</v>
       </c>
       <c r="V45" s="2">
         <v>0.8</v>
       </c>
       <c r="W45" s="5">
-        <v>71307.128</v>
+        <v>67997.728</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
@@ -26726,13 +26386,13 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>7196102.0</v>
+        <v>6924094.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>10154041.838</v>
+        <v>9779655.244</v>
       </c>
       <c r="AC45" s="5">
-        <v>3842289.0</v>
+        <v>3700622.0</v>
       </c>
       <c r="AD45" s="2">
         <v>0.3784</v>
@@ -26742,10 +26402,10 @@
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="6">
-        <v>-71307.128</v>
+        <v>-67997.728</v>
       </c>
       <c r="AH45" s="1">
-        <v>-490667.384</v>
+        <v>-460995.128</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
@@ -26760,7 +26420,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="2"/>
       <c r="AO45" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -26786,28 +26446,28 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>12142230.0</v>
+        <v>11687188.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>12142230.0</v>
+        <v>11687188.0</v>
       </c>
       <c r="S46" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T46" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U46" s="1">
-        <v>9713784.0</v>
+        <v>9349750.4</v>
       </c>
       <c r="V46" s="2">
         <v>0.8</v>
       </c>
       <c r="W46" s="5">
-        <v>80137.84</v>
+        <v>76497.504</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
@@ -26815,13 +26475,13 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>7882248.0</v>
+        <v>7584527.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>11257880.838</v>
+        <v>10842127.244</v>
       </c>
       <c r="AC46" s="5">
-        <v>4259982.0</v>
+        <v>4102661.0</v>
       </c>
       <c r="AD46" s="2">
         <v>0.3784</v>
@@ -26831,10 +26491,10 @@
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="6">
-        <v>-80137.84</v>
+        <v>-76497.504</v>
       </c>
       <c r="AH46" s="1">
-        <v>-570805.224</v>
+        <v>-537492.632</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
@@ -26849,7 +26509,7 @@
       <c r="AM46" s="1"/>
       <c r="AN46" s="2"/>
       <c r="AO46" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -26875,28 +26535,28 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>13356453.0</v>
+        <v>12855907.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>13356453.0</v>
+        <v>12855907.0</v>
       </c>
       <c r="S47" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T47" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U47" s="1">
-        <v>10685162.4</v>
+        <v>10284725.6</v>
       </c>
       <c r="V47" s="2">
         <v>0.8</v>
       </c>
       <c r="W47" s="5">
-        <v>89851.624</v>
+        <v>85847.256</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
@@ -26904,13 +26564,13 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>8637009.0</v>
+        <v>8311003.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>12472103.838</v>
+        <v>12010846.244</v>
       </c>
       <c r="AC47" s="5">
-        <v>4719444.0</v>
+        <v>4544904.0</v>
       </c>
       <c r="AD47" s="2">
         <v>0.3784</v>
@@ -26920,10 +26580,10 @@
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="6">
-        <v>-89851.624</v>
+        <v>-85847.256</v>
       </c>
       <c r="AH47" s="1">
-        <v>-660656.848</v>
+        <v>-623339.888</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
@@ -26938,7 +26598,7 @@
       <c r="AM47" s="1"/>
       <c r="AN47" s="2"/>
       <c r="AO47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -26964,28 +26624,28 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>14692098.0</v>
+        <v>14141498.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>14692098.0</v>
+        <v>14141498.0</v>
       </c>
       <c r="S48" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T48" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U48" s="1">
-        <v>11753678.4</v>
+        <v>11313198.4</v>
       </c>
       <c r="V48" s="2">
         <v>0.8</v>
       </c>
       <c r="W48" s="5">
-        <v>100536.784</v>
+        <v>96131.984</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
@@ -26993,13 +26653,13 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>9467246.0</v>
+        <v>9110126.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>13807748.838</v>
+        <v>13296437.244</v>
       </c>
       <c r="AC48" s="5">
-        <v>5224852.0</v>
+        <v>5031372.0</v>
       </c>
       <c r="AD48" s="2">
         <v>0.3784</v>
@@ -27009,10 +26669,10 @@
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="6">
-        <v>-100536.784</v>
+        <v>-96131.984</v>
       </c>
       <c r="AH48" s="1">
-        <v>-761193.632</v>
+        <v>-719471.872</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
@@ -27027,7 +26687,7 @@
       <c r="AM48" s="1"/>
       <c r="AN48" s="2"/>
       <c r="AO48" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -27053,28 +26713,28 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>16161308.0</v>
+        <v>15555648.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>16161308.0</v>
+        <v>15555648.0</v>
       </c>
       <c r="S49" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T49" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U49" s="1">
-        <v>12929046.4</v>
+        <v>12444518.4</v>
       </c>
       <c r="V49" s="2">
         <v>0.8</v>
       </c>
       <c r="W49" s="5">
-        <v>112290.464</v>
+        <v>107445.184</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
@@ -27082,13 +26742,13 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>10380507.0</v>
+        <v>9989162.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>15276958.838</v>
+        <v>14710587.244</v>
       </c>
       <c r="AC49" s="5">
-        <v>5780801.0</v>
+        <v>5566486.0</v>
       </c>
       <c r="AD49" s="2">
         <v>0.3784</v>
@@ -27098,10 +26758,10 @@
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="6">
-        <v>-112290.464</v>
+        <v>-107445.184</v>
       </c>
       <c r="AH49" s="1">
-        <v>-873484.096</v>
+        <v>-826917.056</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
@@ -27116,7 +26776,7 @@
       <c r="AM49" s="1"/>
       <c r="AN49" s="2"/>
       <c r="AO49" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -27142,28 +26802,28 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>17777439.0</v>
+        <v>17111213.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>17777439.0</v>
+        <v>17111213.0</v>
       </c>
       <c r="S50" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T50" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U50" s="1">
-        <v>14221951.2</v>
+        <v>13688970.4</v>
       </c>
       <c r="V50" s="2">
         <v>0.8</v>
       </c>
       <c r="W50" s="5">
-        <v>125219.512</v>
+        <v>119889.704</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
@@ -27171,13 +26831,13 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>11385094.0</v>
+        <v>10956101.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>16893089.838</v>
+        <v>16266152.244</v>
       </c>
       <c r="AC50" s="5">
-        <v>6392345.0</v>
+        <v>6155112.0</v>
       </c>
       <c r="AD50" s="2">
         <v>0.3784</v>
@@ -27187,10 +26847,10 @@
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="6">
-        <v>-125219.512</v>
+        <v>-119889.704</v>
       </c>
       <c r="AH50" s="1">
-        <v>-998703.608</v>
+        <v>-946806.76</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
@@ -27205,7 +26865,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="2"/>
       <c r="AO50" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -27231,28 +26891,28 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>19555183.0</v>
+        <v>18822334.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>19555183.0</v>
+        <v>18822334.0</v>
       </c>
       <c r="S51" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T51" s="1">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U51" s="1">
-        <v>15644146.4</v>
+        <v>15057867.2</v>
       </c>
       <c r="V51" s="2">
         <v>0.8</v>
       </c>
       <c r="W51" s="5">
-        <v>139441.464</v>
+        <v>133578.672</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
@@ -27260,13 +26920,13 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>12490139.0</v>
+        <v>12019734.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>18670833.838</v>
+        <v>17977273.244</v>
       </c>
       <c r="AC51" s="5">
-        <v>7065044.0</v>
+        <v>6802600.0</v>
       </c>
       <c r="AD51" s="2">
         <v>0.3784</v>
@@ -27276,10 +26936,10 @@
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="6">
-        <v>-139441.464</v>
+        <v>-133578.672</v>
       </c>
       <c r="AH51" s="1">
-        <v>-1138145.072</v>
+        <v>-1080385.432</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
@@ -27294,7 +26954,7 @@
       <c r="AM51" s="1"/>
       <c r="AN51" s="2"/>
       <c r="AO51" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -27320,28 +26980,28 @@
       <c r="N52" s="5"/>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>21510701.0</v>
+        <v>20704567.0</v>
       </c>
       <c r="Q52" s="16">
         <v>0.1</v>
       </c>
       <c r="R52" s="5">
-        <v>21510701.0</v>
+        <v>20704567.0</v>
       </c>
       <c r="S52" s="5">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="T52" s="5">
-        <v>884349.162</v>
+        <v>845060.756</v>
       </c>
       <c r="U52" s="5">
-        <v>17208560.8</v>
+        <v>16563653.6</v>
       </c>
       <c r="V52" s="16">
         <v>0.8</v>
       </c>
       <c r="W52" s="5">
-        <v>155085.608</v>
+        <v>148636.536</v>
       </c>
       <c r="X52" s="16">
         <v>0.01</v>
@@ -27349,13 +27009,13 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>13705689.0</v>
+        <v>13189730.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>20626351.838</v>
+        <v>19859506.244</v>
       </c>
       <c r="AC52" s="5">
-        <v>7805012.0</v>
+        <v>7514837.0</v>
       </c>
       <c r="AD52" s="16">
         <v>0.3784</v>
@@ -27365,10 +27025,10 @@
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="5">
-        <v>-155085.608</v>
+        <v>-148636.536</v>
       </c>
       <c r="AH52" s="5">
-        <v>-1293230.68</v>
+        <v>-1229021.968</v>
       </c>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="5">
@@ -27383,7 +27043,7 @@
       <c r="AM52" s="5"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -28569,10 +28229,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/company-private-transfer_tenpercent.xlsx
+++ b/tests/Feature/config/company-private-transfer_tenpercent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>Sum total</t>
   </si>
@@ -181,9 +181,6 @@
     <t xml:space="preserve"> Company dividend tax on originalAmount: 1361998, originalTaxAmount: 102102, dividendTaxAmount:514835, newTaxAmount: 616937, realizationamount: 847163</t>
   </si>
   <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 7964.2, originalTaxAmount: 104348, dividendTaxAmount:3010, newTaxAmount: 107358, realizationamount: 4954</t>
-  </si>
-  <si>
     <t>Fond - Firma</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Asset rule: Using current amount: 1331000 * 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 1464100=1464100</t>
   </si>
   <si>
     <t>Fond - Privat</t>
@@ -2342,13 +2336,13 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>1092930.0316</v>
+        <v>980618.0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="R20" s="1">
-        <v>1092930.0316</v>
+        <v>980618.0</v>
       </c>
       <c r="S20" s="1">
         <v>845060.756</v>
@@ -2357,11 +2351,11 @@
         <v>845060.756</v>
       </c>
       <c r="U20" s="1">
-        <v>1739350.8</v>
+        <v>128840.8</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="5">
-        <v>393.508</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="5">
@@ -2369,13 +2363,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>937287.0316</v>
+        <v>929323.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>609867.2756</v>
+        <v>135557.244</v>
       </c>
       <c r="AC20" s="5">
-        <v>155643.0</v>
+        <v>51295.0</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
@@ -2442,7 +2436,7 @@
         <v>1078680.0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="R21" s="1">
         <v>1078680.0</v>
@@ -8298,13 +8292,13 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>980617.8316</v>
+        <v>980618.0</v>
       </c>
       <c r="Q20" s="2">
         <v>5.69</v>
       </c>
       <c r="R20" s="1">
-        <v>980617.8316</v>
+        <v>980618.0</v>
       </c>
       <c r="S20" s="1">
         <v>845060.756</v>
@@ -8325,10 +8319,10 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>929322.8316</v>
+        <v>929323.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>135557.0756</v>
+        <v>135557.244</v>
       </c>
       <c r="AC20" s="5">
         <v>51295.0</v>
@@ -14272,13 +14266,11 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>112312.2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>112312.2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -14287,11 +14279,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1610510</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="5">
-        <v>16105.1</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="5">
@@ -14299,17 +14291,15 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>4954.0</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>474310.2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="5">
-        <v>107358.0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="1">
         <v>0</v>
       </c>
@@ -14332,9 +14322,7 @@
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" t="s">
-        <v>53</v>
-      </c>
+      <c r="AO20"/>
     </row>
     <row r="21" spans="1:41">
       <c r="A21">
@@ -18599,7 +18587,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -18607,19 +18595,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -18631,7 +18619,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -19412,7 +19400,7 @@
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -19499,7 +19487,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -19586,7 +19574,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -19673,7 +19661,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
       <c r="AO18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -19760,7 +19748,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -19785,48 +19773,22 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="6">
-        <v>112312.2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>112312.2</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1610510</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="1">
-        <v>7964.2</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>474310.2</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>104348.0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="6">
         <v>0.0</v>
@@ -19846,9 +19808,7 @@
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" t="s">
-        <v>61</v>
-      </c>
+      <c r="AO20"/>
     </row>
     <row r="21" spans="1:41">
       <c r="A21">
@@ -22961,7 +22921,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -22969,19 +22929,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -22993,7 +22953,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -23774,7 +23734,7 @@
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -23861,7 +23821,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -23948,7 +23908,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -24035,7 +23995,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
       <c r="AO18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -24122,7 +24082,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -24148,13 +24108,13 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>980617.8316</v>
+        <v>980618.0</v>
       </c>
       <c r="Q20" s="2">
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>980617.8316</v>
+        <v>980618.0</v>
       </c>
       <c r="S20" s="1">
         <v>845060.756</v>
@@ -24175,10 +24135,10 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>929322.8316</v>
+        <v>929323.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>135557.0756</v>
+        <v>135557.244</v>
       </c>
       <c r="AC20" s="5">
         <v>51295.0</v>
@@ -24211,7 +24171,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -24298,7 +24258,7 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
       <c r="AO21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -24385,7 +24345,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
       <c r="AO22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -24472,7 +24432,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
       <c r="AO23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -24559,7 +24519,7 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
       <c r="AO24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -24646,7 +24606,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
       <c r="AO25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -24733,7 +24693,7 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
       <c r="AO26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -24820,7 +24780,7 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
       <c r="AO27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -24907,7 +24867,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
       <c r="AO28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -24996,7 +24956,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
       <c r="AO29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -25085,7 +25045,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="2"/>
       <c r="AO30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -25174,7 +25134,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="2"/>
       <c r="AO31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -25263,7 +25223,7 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="2"/>
       <c r="AO32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -25352,7 +25312,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="2"/>
       <c r="AO33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -25441,7 +25401,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
       <c r="AO34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -25530,7 +25490,7 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="2"/>
       <c r="AO35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -25619,7 +25579,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="2"/>
       <c r="AO36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -25708,7 +25668,7 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="2"/>
       <c r="AO37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -25797,7 +25757,7 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="2"/>
       <c r="AO38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -25886,7 +25846,7 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="2"/>
       <c r="AO39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -25975,7 +25935,7 @@
       <c r="AM40" s="11"/>
       <c r="AN40" s="12"/>
       <c r="AO40" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -26064,7 +26024,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="2"/>
       <c r="AO41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -26153,7 +26113,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="2"/>
       <c r="AO42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -26242,7 +26202,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="2"/>
       <c r="AO43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -26331,7 +26291,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="2"/>
       <c r="AO44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -26420,7 +26380,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="2"/>
       <c r="AO45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -26509,7 +26469,7 @@
       <c r="AM46" s="1"/>
       <c r="AN46" s="2"/>
       <c r="AO46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -26598,7 +26558,7 @@
       <c r="AM47" s="1"/>
       <c r="AN47" s="2"/>
       <c r="AO47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -26687,7 +26647,7 @@
       <c r="AM48" s="1"/>
       <c r="AN48" s="2"/>
       <c r="AO48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -26776,7 +26736,7 @@
       <c r="AM49" s="1"/>
       <c r="AN49" s="2"/>
       <c r="AO49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -26865,7 +26825,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="2"/>
       <c r="AO50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -26954,7 +26914,7 @@
       <c r="AM51" s="1"/>
       <c r="AN51" s="2"/>
       <c r="AO51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -27043,7 +27003,7 @@
       <c r="AM52" s="5"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -28229,10 +28189,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
